--- a/CA Semester 2 Strategic Thinking - CRISP-DM2.xlsx
+++ b/CA Semester 2 Strategic Thinking - CRISP-DM2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10B97B71-5E47-49C8-8116-8F08DBBAC679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B7EF4A-F519-49F0-B5B9-808500837C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25200" yWindow="-10485" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-13065" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -30,28 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
-  <si>
-    <t>Phase 1 Title</t>
-  </si>
-  <si>
-    <t>Task 3</t>
-  </si>
-  <si>
-    <t>Task 4</t>
-  </si>
-  <si>
-    <t>Task 5</t>
-  </si>
-  <si>
-    <t>Phase 2 Title</t>
-  </si>
-  <si>
-    <t>Task 1</t>
-  </si>
-  <si>
-    <t>Task 2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -84,9 +63,6 @@
     <t>TASK</t>
   </si>
   <si>
-    <t>Phase 3 Title</t>
-  </si>
-  <si>
     <t>More Project Management Templates</t>
   </si>
   <si>
@@ -118,9 +94,6 @@
   </si>
   <si>
     <t>This template provides a simple way to create a Gantt chart to help visualize and track your project. Simply enter your tasks and start and end dates - no formulas required. The bars in the Gantt chart represent the duration of the task and are displayed using conditional formatting. Insert new tasks by inserting new rows.</t>
-  </si>
-  <si>
-    <t>Phase 4 Title</t>
   </si>
   <si>
     <t>Click on the link below to visit vertex42.com and learn more about how to use this template, such as how to calculate days and work days, create task dependencies, change the colors of the bars, add a scroll bar to make it easier to change the display week, extend the date range displayed in the chart, etc.</t>
@@ -138,9 +111,6 @@
   </si>
   <si>
     <t>Enter Company Name in cell B2.</t>
-  </si>
-  <si>
-    <t>date</t>
   </si>
   <si>
     <t>Sample phase title block</t>
@@ -237,10 +207,40 @@
     <t>To create GitHub Repository and add: Code, and Report.</t>
   </si>
   <si>
-    <t>To search content regarding: Hyperparameter Tunning and Cross-Validation.</t>
-  </si>
-  <si>
-    <t>To review EDA and Data visualization to get deeply understanding or new insights to enhance the analysis.</t>
+    <t>Phase 2 Enhancement</t>
+  </si>
+  <si>
+    <t>Apply stratified CV on the 3 ML models.</t>
+  </si>
+  <si>
+    <t>To search content regarding: Hyperparameter Tunning and Cross-Validation: Books, articles and videos.</t>
+  </si>
+  <si>
+    <t>Improve EAD and Data Visualization plots: Apply data visualization techniques learned.</t>
+  </si>
+  <si>
+    <t>Calculate Shap values and display visualization.</t>
+  </si>
+  <si>
+    <t>Display feature importances visualization.</t>
+  </si>
+  <si>
+    <t>Apply Cluster to get deeply understanding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase 1 Project's overview </t>
+  </si>
+  <si>
+    <t>Phase 3 Deliver</t>
+  </si>
+  <si>
+    <t>To edit Report</t>
+  </si>
+  <si>
+    <t>To create a new Presentation</t>
+  </si>
+  <si>
+    <t>To submit CA</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,6 +509,12 @@
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -663,7 +669,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -910,6 +916,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -922,11 +934,8 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1502,7 +1511,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="AQ21" sqref="AQ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1522,10 +1531,10 @@
   <sheetData>
     <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="59" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1533,131 +1542,131 @@
       <c r="F1" s="47"/>
       <c r="H1" s="2"/>
       <c r="I1" s="85" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I2" s="86" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="91">
+        <v>38</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="89"/>
+      <c r="E3" s="93">
         <v>45233</v>
       </c>
-      <c r="F3" s="91"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="92" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="93"/>
+        <v>29</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="89"/>
       <c r="E4" s="7">
         <v>0.05</v>
       </c>
-      <c r="I4" s="88">
+      <c r="I4" s="90">
         <f>I5</f>
         <v>45222.35</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="88">
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="90">
         <f>P5</f>
         <v>45229.35</v>
       </c>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="88">
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="90">
         <f>W5</f>
         <v>45236.35</v>
       </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="88">
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="90">
         <f>AD5</f>
         <v>45243.35</v>
       </c>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="88">
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="90">
         <f>AK5</f>
         <v>45250.35</v>
       </c>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="88">
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="90">
         <f>AR5</f>
         <v>45257.35</v>
       </c>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="88">
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="90">
         <f>AY5</f>
         <v>45264.35</v>
       </c>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="88">
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="90">
         <f>BF5</f>
         <v>45271.35</v>
       </c>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="90"/>
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="92"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B5" s="84"/>
       <c r="C5" s="84"/>
@@ -1892,26 +1901,26 @@
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I6" s="13" t="str">
         <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
@@ -2140,7 +2149,7 @@
     </row>
     <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C7" s="61"/>
       <c r="E7"/>
@@ -2207,10 +2216,10 @@
     </row>
     <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C8" s="70"/>
       <c r="D8" s="19"/>
@@ -2245,7 +2254,7 @@
       <c r="AD8" s="44"/>
       <c r="AE8" s="44"/>
       <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
+      <c r="AG8" s="94"/>
       <c r="AH8" s="44"/>
       <c r="AI8" s="44"/>
       <c r="AJ8" s="44"/>
@@ -2280,13 +2289,13 @@
     </row>
     <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="59" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D9" s="22">
         <v>1</v>
@@ -2328,7 +2337,7 @@
       <c r="AD9" s="44"/>
       <c r="AE9" s="44"/>
       <c r="AF9" s="44"/>
-      <c r="AG9" s="44"/>
+      <c r="AG9" s="94"/>
       <c r="AH9" s="44"/>
       <c r="AI9" s="44"/>
       <c r="AJ9" s="44"/>
@@ -2363,13 +2372,13 @@
     </row>
     <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="79" t="s">
-        <v>53</v>
-      </c>
       <c r="C10" s="71" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D10" s="22">
         <v>1</v>
@@ -2411,7 +2420,7 @@
       <c r="AD10" s="44"/>
       <c r="AE10" s="44"/>
       <c r="AF10" s="44"/>
-      <c r="AG10" s="44"/>
+      <c r="AG10" s="94"/>
       <c r="AH10" s="44"/>
       <c r="AI10" s="44"/>
       <c r="AJ10" s="44"/>
@@ -2447,10 +2456,10 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
       <c r="B11" s="79" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D11" s="22">
         <v>1</v>
@@ -2460,13 +2469,13 @@
         <v>45233</v>
       </c>
       <c r="F11" s="65">
-        <f>E11+0</f>
-        <v>45233</v>
+        <f>E11+1</f>
+        <v>45234</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
@@ -2492,7 +2501,7 @@
       <c r="AD11" s="44"/>
       <c r="AE11" s="44"/>
       <c r="AF11" s="44"/>
-      <c r="AG11" s="44"/>
+      <c r="AG11" s="94"/>
       <c r="AH11" s="44"/>
       <c r="AI11" s="44"/>
       <c r="AJ11" s="44"/>
@@ -2528,21 +2537,21 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58"/>
       <c r="B12" s="79" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C12" s="71" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D12" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="65">
         <f>F11</f>
-        <v>45233</v>
+        <v>45234</v>
       </c>
       <c r="F12" s="65">
         <f>E12+3</f>
-        <v>45236</v>
+        <v>45237</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17">
@@ -2573,7 +2582,7 @@
       <c r="AD12" s="44"/>
       <c r="AE12" s="44"/>
       <c r="AF12" s="44"/>
-      <c r="AG12" s="44"/>
+      <c r="AG12" s="94"/>
       <c r="AH12" s="44"/>
       <c r="AI12" s="44"/>
       <c r="AJ12" s="44"/>
@@ -2606,29 +2615,17 @@
       <c r="BK12" s="44"/>
       <c r="BL12" s="44"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
-      <c r="B13" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="22">
-        <v>0</v>
-      </c>
-      <c r="E13" s="65">
-        <f>E10+4</f>
-        <v>45237</v>
-      </c>
-      <c r="F13" s="65">
-        <f>E13+0</f>
-        <v>45237</v>
-      </c>
+      <c r="B13" s="79"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="17">
+      <c r="H13" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
@@ -2654,7 +2651,7 @@
       <c r="AD13" s="44"/>
       <c r="AE13" s="44"/>
       <c r="AF13" s="44"/>
-      <c r="AG13" s="44"/>
+      <c r="AG13" s="94"/>
       <c r="AH13" s="44"/>
       <c r="AI13" s="44"/>
       <c r="AJ13" s="44"/>
@@ -2689,10 +2686,10 @@
     </row>
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C14" s="72"/>
       <c r="D14" s="24"/>
@@ -2727,7 +2724,7 @@
       <c r="AD14" s="44"/>
       <c r="AE14" s="44"/>
       <c r="AF14" s="44"/>
-      <c r="AG14" s="44"/>
+      <c r="AG14" s="94"/>
       <c r="AH14" s="44"/>
       <c r="AI14" s="44"/>
       <c r="AJ14" s="44"/>
@@ -2763,26 +2760,26 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59"/>
       <c r="B15" s="80" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D15" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="66">
-        <f>E13+1</f>
+        <f>F12+1</f>
         <v>45238</v>
       </c>
       <c r="F15" s="66">
-        <f>E15+1</f>
-        <v>45239</v>
+        <f>E15+0</f>
+        <v>45238</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="44"/>
       <c r="J15" s="44"/>
@@ -2808,7 +2805,7 @@
       <c r="AD15" s="44"/>
       <c r="AE15" s="44"/>
       <c r="AF15" s="44"/>
-      <c r="AG15" s="44"/>
+      <c r="AG15" s="94"/>
       <c r="AH15" s="44"/>
       <c r="AI15" s="44"/>
       <c r="AJ15" s="44"/>
@@ -2844,26 +2841,26 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="80" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C16" s="73" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D16" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="66">
-        <f>E15+2</f>
-        <v>45240</v>
+        <f>F15+0</f>
+        <v>45238</v>
       </c>
       <c r="F16" s="66">
-        <f>E16+1</f>
-        <v>45241</v>
+        <f>E16+0</f>
+        <v>45238</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
@@ -2889,7 +2886,7 @@
       <c r="AD16" s="44"/>
       <c r="AE16" s="44"/>
       <c r="AF16" s="44"/>
-      <c r="AG16" s="44"/>
+      <c r="AG16" s="94"/>
       <c r="AH16" s="44"/>
       <c r="AI16" s="44"/>
       <c r="AJ16" s="44"/>
@@ -2925,26 +2922,26 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58"/>
       <c r="B17" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="27">
         <v>1</v>
       </c>
-      <c r="C17" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="27">
-        <v>0</v>
-      </c>
       <c r="E17" s="66">
-        <f>F16</f>
-        <v>45241</v>
+        <f>F16+0</f>
+        <v>45238</v>
       </c>
       <c r="F17" s="66">
-        <f>E17+1</f>
-        <v>45242</v>
+        <f>E17+0</f>
+        <v>45238</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
@@ -2970,7 +2967,7 @@
       <c r="AD17" s="44"/>
       <c r="AE17" s="44"/>
       <c r="AF17" s="44"/>
-      <c r="AG17" s="44"/>
+      <c r="AG17" s="94"/>
       <c r="AH17" s="44"/>
       <c r="AI17" s="44"/>
       <c r="AJ17" s="44"/>
@@ -3006,21 +3003,21 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="58"/>
       <c r="B18" s="80" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D18" s="27">
         <v>0</v>
       </c>
       <c r="E18" s="66">
-        <f>E17</f>
-        <v>45241</v>
+        <f>F17+1</f>
+        <v>45239</v>
       </c>
       <c r="F18" s="66">
         <f>E18+1</f>
-        <v>45242</v>
+        <v>45240</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
@@ -3051,7 +3048,7 @@
       <c r="AD18" s="44"/>
       <c r="AE18" s="44"/>
       <c r="AF18" s="44"/>
-      <c r="AG18" s="44"/>
+      <c r="AG18" s="94"/>
       <c r="AH18" s="44"/>
       <c r="AI18" s="44"/>
       <c r="AJ18" s="44"/>
@@ -3087,16 +3084,16 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="58"/>
       <c r="B19" s="80" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D19" s="27">
         <v>0</v>
       </c>
       <c r="E19" s="66">
-        <f>E18</f>
+        <f>F18+1</f>
         <v>45241</v>
       </c>
       <c r="F19" s="66">
@@ -3132,7 +3129,7 @@
       <c r="AD19" s="44"/>
       <c r="AE19" s="44"/>
       <c r="AF19" s="44"/>
-      <c r="AG19" s="44"/>
+      <c r="AG19" s="94"/>
       <c r="AH19" s="44"/>
       <c r="AI19" s="44"/>
       <c r="AJ19" s="44"/>
@@ -3167,10 +3164,10 @@
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="58" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C20" s="74"/>
       <c r="D20" s="29"/>
@@ -3205,7 +3202,7 @@
       <c r="AD20" s="44"/>
       <c r="AE20" s="44"/>
       <c r="AF20" s="44"/>
-      <c r="AG20" s="44"/>
+      <c r="AG20" s="94"/>
       <c r="AH20" s="44"/>
       <c r="AI20" s="44"/>
       <c r="AJ20" s="44"/>
@@ -3241,24 +3238,26 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="58"/>
       <c r="B21" s="81" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C21" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="32"/>
+        <v>41</v>
+      </c>
+      <c r="D21" s="32">
+        <v>0</v>
+      </c>
       <c r="E21" s="67">
-        <f>E9+15</f>
-        <v>45248</v>
+        <f>F19+0</f>
+        <v>45242</v>
       </c>
       <c r="F21" s="67">
-        <f>E21+5</f>
-        <v>45253</v>
+        <f>E21+2</f>
+        <v>45244</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I21" s="44"/>
       <c r="J21" s="44"/>
@@ -3284,7 +3283,7 @@
       <c r="AD21" s="44"/>
       <c r="AE21" s="44"/>
       <c r="AF21" s="44"/>
-      <c r="AG21" s="44"/>
+      <c r="AG21" s="94"/>
       <c r="AH21" s="44"/>
       <c r="AI21" s="44"/>
       <c r="AJ21" s="44"/>
@@ -3320,24 +3319,26 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="58"/>
       <c r="B22" s="81" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C22" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="32"/>
+        <v>41</v>
+      </c>
+      <c r="D22" s="32">
+        <v>0</v>
+      </c>
       <c r="E22" s="67">
-        <f>F21+1</f>
-        <v>45254</v>
+        <f>F21+0</f>
+        <v>45244</v>
       </c>
       <c r="F22" s="67">
-        <f>E22+4</f>
-        <v>45258</v>
+        <f>E22+0</f>
+        <v>45244</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
@@ -3363,7 +3364,7 @@
       <c r="AD22" s="44"/>
       <c r="AE22" s="44"/>
       <c r="AF22" s="44"/>
-      <c r="AG22" s="44"/>
+      <c r="AG22" s="94"/>
       <c r="AH22" s="44"/>
       <c r="AI22" s="44"/>
       <c r="AJ22" s="44"/>
@@ -3399,24 +3400,26 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58"/>
       <c r="B23" s="81" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="32"/>
+        <v>41</v>
+      </c>
+      <c r="D23" s="32">
+        <v>0</v>
+      </c>
       <c r="E23" s="67">
-        <f>E22+5</f>
-        <v>45259</v>
+        <f>F22+0</f>
+        <v>45244</v>
       </c>
       <c r="F23" s="67">
-        <f>E23+5</f>
-        <v>45264</v>
+        <f>E23+0</f>
+        <v>45244</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
@@ -3442,7 +3445,7 @@
       <c r="AD23" s="44"/>
       <c r="AE23" s="44"/>
       <c r="AF23" s="44"/>
-      <c r="AG23" s="44"/>
+      <c r="AG23" s="94"/>
       <c r="AH23" s="44"/>
       <c r="AI23" s="44"/>
       <c r="AJ23" s="44"/>
@@ -3477,25 +3480,15 @@
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="58"/>
-      <c r="B24" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="75" t="s">
-        <v>51</v>
-      </c>
+      <c r="B24" s="81"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="32"/>
-      <c r="E24" s="67">
-        <f>F23+1</f>
-        <v>45265</v>
-      </c>
-      <c r="F24" s="67">
-        <f>E24+4</f>
-        <v>45269</v>
-      </c>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="17">
+      <c r="H24" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
@@ -3521,7 +3514,7 @@
       <c r="AD24" s="44"/>
       <c r="AE24" s="44"/>
       <c r="AF24" s="44"/>
-      <c r="AG24" s="44"/>
+      <c r="AG24" s="94"/>
       <c r="AH24" s="44"/>
       <c r="AI24" s="44"/>
       <c r="AJ24" s="44"/>
@@ -3556,25 +3549,15 @@
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="58"/>
-      <c r="B25" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="75" t="s">
-        <v>51</v>
-      </c>
+      <c r="B25" s="81"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="32"/>
-      <c r="E25" s="67">
-        <f>E23</f>
-        <v>45259</v>
-      </c>
-      <c r="F25" s="67">
-        <f>E25+4</f>
-        <v>45263</v>
-      </c>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="17">
+      <c r="H25" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
@@ -3600,7 +3583,7 @@
       <c r="AD25" s="44"/>
       <c r="AE25" s="44"/>
       <c r="AF25" s="44"/>
-      <c r="AG25" s="44"/>
+      <c r="AG25" s="94"/>
       <c r="AH25" s="44"/>
       <c r="AI25" s="44"/>
       <c r="AJ25" s="44"/>
@@ -3635,11 +3618,9 @@
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B26" s="33"/>
       <c r="C26" s="76"/>
       <c r="D26" s="34"/>
       <c r="E26" s="35"/>
@@ -3673,7 +3654,7 @@
       <c r="AD26" s="44"/>
       <c r="AE26" s="44"/>
       <c r="AF26" s="44"/>
-      <c r="AG26" s="44"/>
+      <c r="AG26" s="94"/>
       <c r="AH26" s="44"/>
       <c r="AI26" s="44"/>
       <c r="AJ26" s="44"/>
@@ -3708,23 +3689,15 @@
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
-      <c r="B27" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="77" t="s">
-        <v>51</v>
-      </c>
+      <c r="B27" s="82"/>
+      <c r="C27" s="77"/>
       <c r="D27" s="37"/>
-      <c r="E27" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="68" t="s">
-        <v>34</v>
-      </c>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
       <c r="G27" s="17"/>
-      <c r="H27" s="17" t="e">
+      <c r="H27" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
@@ -3750,7 +3723,7 @@
       <c r="AD27" s="44"/>
       <c r="AE27" s="44"/>
       <c r="AF27" s="44"/>
-      <c r="AG27" s="44"/>
+      <c r="AG27" s="94"/>
       <c r="AH27" s="44"/>
       <c r="AI27" s="44"/>
       <c r="AJ27" s="44"/>
@@ -3785,23 +3758,15 @@
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
-      <c r="B28" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="77" t="s">
-        <v>51</v>
-      </c>
+      <c r="B28" s="82"/>
+      <c r="C28" s="77"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="68" t="s">
-        <v>34</v>
-      </c>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="17" t="e">
+      <c r="H28" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
@@ -3827,7 +3792,7 @@
       <c r="AD28" s="44"/>
       <c r="AE28" s="44"/>
       <c r="AF28" s="44"/>
-      <c r="AG28" s="44"/>
+      <c r="AG28" s="94"/>
       <c r="AH28" s="44"/>
       <c r="AI28" s="44"/>
       <c r="AJ28" s="44"/>
@@ -3862,23 +3827,15 @@
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
-      <c r="B29" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="77" t="s">
-        <v>51</v>
-      </c>
+      <c r="B29" s="82"/>
+      <c r="C29" s="77"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="68" t="s">
-        <v>34</v>
-      </c>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="17" t="e">
+      <c r="H29" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
@@ -3904,7 +3861,7 @@
       <c r="AD29" s="44"/>
       <c r="AE29" s="44"/>
       <c r="AF29" s="44"/>
-      <c r="AG29" s="44"/>
+      <c r="AG29" s="94"/>
       <c r="AH29" s="44"/>
       <c r="AI29" s="44"/>
       <c r="AJ29" s="44"/>
@@ -3939,23 +3896,15 @@
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="58"/>
-      <c r="B30" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="77" t="s">
-        <v>51</v>
-      </c>
+      <c r="B30" s="82"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="37"/>
-      <c r="E30" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="68" t="s">
-        <v>34</v>
-      </c>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="17" t="e">
+      <c r="H30" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I30" s="44"/>
       <c r="J30" s="44"/>
@@ -3981,7 +3930,7 @@
       <c r="AD30" s="44"/>
       <c r="AE30" s="44"/>
       <c r="AF30" s="44"/>
-      <c r="AG30" s="44"/>
+      <c r="AG30" s="94"/>
       <c r="AH30" s="44"/>
       <c r="AI30" s="44"/>
       <c r="AJ30" s="44"/>
@@ -4016,23 +3965,15 @@
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="58"/>
-      <c r="B31" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="77" t="s">
-        <v>51</v>
-      </c>
+      <c r="B31" s="82"/>
+      <c r="C31" s="77"/>
       <c r="D31" s="37"/>
-      <c r="E31" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="68" t="s">
-        <v>34</v>
-      </c>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="17" t="e">
+      <c r="H31" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
@@ -4058,7 +3999,7 @@
       <c r="AD31" s="44"/>
       <c r="AE31" s="44"/>
       <c r="AF31" s="44"/>
-      <c r="AG31" s="44"/>
+      <c r="AG31" s="94"/>
       <c r="AH31" s="44"/>
       <c r="AI31" s="44"/>
       <c r="AJ31" s="44"/>
@@ -4093,7 +4034,7 @@
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="58" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B32" s="83"/>
       <c r="C32" s="78"/>
@@ -4129,7 +4070,7 @@
       <c r="AD32" s="44"/>
       <c r="AE32" s="44"/>
       <c r="AF32" s="44"/>
-      <c r="AG32" s="44"/>
+      <c r="AG32" s="94"/>
       <c r="AH32" s="44"/>
       <c r="AI32" s="44"/>
       <c r="AJ32" s="44"/>
@@ -4164,10 +4105,10 @@
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="59" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C33" s="39"/>
       <c r="D33" s="40"/>
@@ -4202,7 +4143,7 @@
       <c r="AD33" s="46"/>
       <c r="AE33" s="46"/>
       <c r="AF33" s="46"/>
-      <c r="AG33" s="46"/>
+      <c r="AG33" s="94"/>
       <c r="AH33" s="46"/>
       <c r="AI33" s="46"/>
       <c r="AJ33" s="46"/>
@@ -4247,17 +4188,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="14">
@@ -4301,9 +4242,6 @@
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="F22:F23 E23 F12" formula="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -4343,79 +4281,79 @@
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:2" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="87" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B3" s="55"/>
     </row>
     <row r="4" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="52" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="48" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="52" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="53" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="48" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="52" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="53" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="48" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="52" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="53" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/CA Semester 2 Strategic Thinking - CRISP-DM2.xlsx
+++ b/CA Semester 2 Strategic Thinking - CRISP-DM2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B7EF4A-F519-49F0-B5B9-808500837C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53221EE-E6FE-4E63-AF62-91646776F0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-13065" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -254,7 +254,7 @@
     <numFmt numFmtId="167" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="d"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +430,26 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -669,7 +689,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -796,9 +816,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -916,26 +933,57 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="25" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="25" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="25" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1509,14 +1557,14 @@
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AQ21" sqref="AQ21"/>
+      <selection pane="bottomLeft" activeCell="AP11" sqref="AP11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="58" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="57" customWidth="1"/>
     <col min="2" max="2" width="98.85546875" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -1525,155 +1573,155 @@
     <col min="7" max="7" width="2.7109375" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
     <col min="9" max="15" width="2.5703125" hidden="1" customWidth="1"/>
-    <col min="16" max="64" width="2.5703125" customWidth="1"/>
+    <col min="16" max="64" width="2.5703125" style="93" customWidth="1"/>
     <col min="69" max="70" width="10.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="47"/>
+      <c r="F1" s="46"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="85" t="s">
+      <c r="I1" s="84" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="85" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="93">
+      <c r="D3" s="92"/>
+      <c r="E3" s="90">
         <v>45233</v>
       </c>
-      <c r="F3" s="93"/>
+      <c r="F3" s="90"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="7">
         <v>0.05</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="87">
         <f>I5</f>
         <v>45222.35</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="90">
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="94">
         <f>P5</f>
         <v>45229.35</v>
       </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="90">
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="94">
         <f>W5</f>
         <v>45236.35</v>
       </c>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="90">
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="94">
         <f>AD5</f>
         <v>45243.35</v>
       </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="90">
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="96"/>
+      <c r="AK4" s="94">
         <f>AK5</f>
         <v>45250.35</v>
       </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="90">
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="95"/>
+      <c r="AP4" s="95"/>
+      <c r="AQ4" s="96"/>
+      <c r="AR4" s="94">
         <f>AR5</f>
         <v>45257.35</v>
       </c>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="90">
+      <c r="AS4" s="95"/>
+      <c r="AT4" s="95"/>
+      <c r="AU4" s="95"/>
+      <c r="AV4" s="95"/>
+      <c r="AW4" s="95"/>
+      <c r="AX4" s="96"/>
+      <c r="AY4" s="94">
         <f>AY5</f>
         <v>45264.35</v>
       </c>
-      <c r="AZ4" s="91"/>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="90">
+      <c r="AZ4" s="95"/>
+      <c r="BA4" s="95"/>
+      <c r="BB4" s="95"/>
+      <c r="BC4" s="95"/>
+      <c r="BD4" s="95"/>
+      <c r="BE4" s="96"/>
+      <c r="BF4" s="94">
         <f>BF5</f>
         <v>45271.35</v>
       </c>
-      <c r="BG4" s="91"/>
-      <c r="BH4" s="91"/>
-      <c r="BI4" s="91"/>
-      <c r="BJ4" s="91"/>
-      <c r="BK4" s="91"/>
-      <c r="BL4" s="92"/>
+      <c r="BG4" s="95"/>
+      <c r="BH4" s="95"/>
+      <c r="BI4" s="95"/>
+      <c r="BJ4" s="95"/>
+      <c r="BK4" s="95"/>
+      <c r="BL4" s="96"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>45222.35</v>
@@ -1702,87 +1750,87 @@
         <f t="shared" si="0"/>
         <v>45228.35</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="102">
         <f>O5+1</f>
         <v>45229.35</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="103">
         <f>P5+1</f>
         <v>45230.35</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="103">
         <f t="shared" si="0"/>
         <v>45231.35</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S5" s="103">
         <f t="shared" si="0"/>
         <v>45232.35</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="103">
         <f t="shared" si="0"/>
         <v>45233.35</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="103">
         <f t="shared" si="0"/>
         <v>45234.35</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V5" s="104">
         <f t="shared" si="0"/>
         <v>45235.35</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="102">
         <f>V5+1</f>
         <v>45236.35</v>
       </c>
-      <c r="X5" s="10">
+      <c r="X5" s="103">
         <f>W5+1</f>
         <v>45237.35</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Y5" s="103">
         <f t="shared" si="0"/>
         <v>45238.35</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="Z5" s="103">
         <f t="shared" si="0"/>
         <v>45239.35</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AA5" s="103">
         <f t="shared" si="0"/>
         <v>45240.35</v>
       </c>
-      <c r="AB5" s="10">
+      <c r="AB5" s="103">
         <f t="shared" si="0"/>
         <v>45241.35</v>
       </c>
-      <c r="AC5" s="12">
+      <c r="AC5" s="104">
         <f t="shared" si="0"/>
         <v>45242.35</v>
       </c>
-      <c r="AD5" s="11">
+      <c r="AD5" s="102">
         <f>AC5+1</f>
         <v>45243.35</v>
       </c>
-      <c r="AE5" s="10">
+      <c r="AE5" s="103">
         <f>AD5+1</f>
         <v>45244.35</v>
       </c>
-      <c r="AF5" s="10">
+      <c r="AF5" s="103">
         <f t="shared" si="0"/>
         <v>45245.35</v>
       </c>
-      <c r="AG5" s="10">
+      <c r="AG5" s="103">
         <f t="shared" si="0"/>
         <v>45246.35</v>
       </c>
-      <c r="AH5" s="10">
+      <c r="AH5" s="103">
         <f t="shared" si="0"/>
         <v>45247.35</v>
       </c>
-      <c r="AI5" s="10">
+      <c r="AI5" s="103">
         <f t="shared" si="0"/>
         <v>45248.35</v>
       </c>
-      <c r="AJ5" s="12">
+      <c r="AJ5" s="104">
         <f t="shared" si="0"/>
         <v>45249.35</v>
       </c>
@@ -1900,7 +1948,7 @@
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="58" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1950,208 +1998,208 @@
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="P6" s="13" t="str">
+      <c r="P6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="Q6" s="13" t="str">
+      <c r="Q6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="R6" s="13" t="str">
+      <c r="R6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="S6" s="13" t="str">
+      <c r="S6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="T6" s="13" t="str">
+      <c r="T6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="U6" s="13" t="str">
+      <c r="U6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="V6" s="13" t="str">
+      <c r="V6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="W6" s="13" t="str">
+      <c r="W6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="X6" s="13" t="str">
+      <c r="X6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="Y6" s="13" t="str">
+      <c r="Y6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="Z6" s="13" t="str">
+      <c r="Z6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AA6" s="13" t="str">
+      <c r="AA6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="AB6" s="13" t="str">
+      <c r="AB6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AC6" s="13" t="str">
+      <c r="AC6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AD6" s="13" t="str">
+      <c r="AD6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="AE6" s="13" t="str">
+      <c r="AE6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AF6" s="13" t="str">
+      <c r="AF6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="AG6" s="13" t="str">
+      <c r="AG6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AH6" s="13" t="str">
+      <c r="AH6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="AI6" s="13" t="str">
+      <c r="AI6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AJ6" s="13" t="str">
+      <c r="AJ6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AK6" s="13" t="str">
+      <c r="AK6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="AL6" s="13" t="str">
+      <c r="AL6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AM6" s="13" t="str">
+      <c r="AM6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="AN6" s="13" t="str">
+      <c r="AN6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AO6" s="13" t="str">
+      <c r="AO6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="AP6" s="13" t="str">
+      <c r="AP6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AQ6" s="13" t="str">
+      <c r="AQ6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AR6" s="13" t="str">
+      <c r="AR6" s="97" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="AS6" s="13" t="str">
+      <c r="AS6" s="97" t="str">
         <f t="shared" ref="AS6:BL6" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="AT6" s="13" t="str">
+      <c r="AT6" s="97" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="AU6" s="13" t="str">
+      <c r="AU6" s="97" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AV6" s="13" t="str">
+      <c r="AV6" s="97" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="AW6" s="13" t="str">
+      <c r="AW6" s="97" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AX6" s="13" t="str">
+      <c r="AX6" s="97" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AY6" s="13" t="str">
+      <c r="AY6" s="97" t="str">
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="AZ6" s="13" t="str">
+      <c r="AZ6" s="97" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="BA6" s="13" t="str">
+      <c r="BA6" s="97" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="BB6" s="13" t="str">
+      <c r="BB6" s="97" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="BC6" s="13" t="str">
+      <c r="BC6" s="97" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="BD6" s="13" t="str">
+      <c r="BD6" s="97" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="BE6" s="13" t="str">
+      <c r="BE6" s="97" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="BF6" s="13" t="str">
+      <c r="BF6" s="97" t="str">
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="BG6" s="13" t="str">
+      <c r="BG6" s="97" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="BH6" s="13" t="str">
+      <c r="BH6" s="97" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="BI6" s="13" t="str">
+      <c r="BI6" s="97" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="BJ6" s="13" t="str">
+      <c r="BJ6" s="97" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="BK6" s="13" t="str">
+      <c r="BK6" s="97" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="BL6" s="13" t="str">
+      <c r="BL6" s="97" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
     </row>
     <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="60"/>
       <c r="E7"/>
       <c r="H7" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -2164,64 +2212,64 @@
       <c r="M7" s="44"/>
       <c r="N7" s="44"/>
       <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="44"/>
-      <c r="AI7" s="44"/>
-      <c r="AJ7" s="44"/>
-      <c r="AK7" s="44"/>
-      <c r="AL7" s="44"/>
-      <c r="AM7" s="44"/>
-      <c r="AN7" s="44"/>
-      <c r="AO7" s="44"/>
-      <c r="AP7" s="44"/>
-      <c r="AQ7" s="44"/>
-      <c r="AR7" s="44"/>
-      <c r="AS7" s="44"/>
-      <c r="AT7" s="44"/>
-      <c r="AU7" s="44"/>
-      <c r="AV7" s="44"/>
-      <c r="AW7" s="44"/>
-      <c r="AX7" s="44"/>
-      <c r="AY7" s="44"/>
-      <c r="AZ7" s="44"/>
-      <c r="BA7" s="44"/>
-      <c r="BB7" s="44"/>
-      <c r="BC7" s="44"/>
-      <c r="BD7" s="44"/>
-      <c r="BE7" s="44"/>
-      <c r="BF7" s="44"/>
-      <c r="BG7" s="44"/>
-      <c r="BH7" s="44"/>
-      <c r="BI7" s="44"/>
-      <c r="BJ7" s="44"/>
-      <c r="BK7" s="44"/>
-      <c r="BL7" s="44"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="98"/>
+      <c r="AC7" s="98"/>
+      <c r="AD7" s="98"/>
+      <c r="AE7" s="98"/>
+      <c r="AF7" s="98"/>
+      <c r="AG7" s="98"/>
+      <c r="AH7" s="98"/>
+      <c r="AI7" s="98"/>
+      <c r="AJ7" s="98"/>
+      <c r="AK7" s="98"/>
+      <c r="AL7" s="98"/>
+      <c r="AM7" s="98"/>
+      <c r="AN7" s="98"/>
+      <c r="AO7" s="98"/>
+      <c r="AP7" s="98"/>
+      <c r="AQ7" s="98"/>
+      <c r="AR7" s="98"/>
+      <c r="AS7" s="98"/>
+      <c r="AT7" s="98"/>
+      <c r="AU7" s="98"/>
+      <c r="AV7" s="98"/>
+      <c r="AW7" s="98"/>
+      <c r="AX7" s="98"/>
+      <c r="AY7" s="98"/>
+      <c r="AZ7" s="98"/>
+      <c r="BA7" s="98"/>
+      <c r="BB7" s="98"/>
+      <c r="BC7" s="98"/>
+      <c r="BD7" s="98"/>
+      <c r="BE7" s="98"/>
+      <c r="BF7" s="98"/>
+      <c r="BG7" s="98"/>
+      <c r="BH7" s="98"/>
+      <c r="BI7" s="98"/>
+      <c r="BJ7" s="98"/>
+      <c r="BK7" s="98"/>
+      <c r="BL7" s="98"/>
     </row>
     <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="58" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="70"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
@@ -2237,74 +2285,74 @@
       <c r="M8" s="44"/>
       <c r="N8" s="44"/>
       <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="94"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="44"/>
-      <c r="AN8" s="44"/>
-      <c r="AO8" s="44"/>
-      <c r="AP8" s="44"/>
-      <c r="AQ8" s="44"/>
-      <c r="AR8" s="44"/>
-      <c r="AS8" s="44"/>
-      <c r="AT8" s="44"/>
-      <c r="AU8" s="44"/>
-      <c r="AV8" s="44"/>
-      <c r="AW8" s="44"/>
-      <c r="AX8" s="44"/>
-      <c r="AY8" s="44"/>
-      <c r="AZ8" s="44"/>
-      <c r="BA8" s="44"/>
-      <c r="BB8" s="44"/>
-      <c r="BC8" s="44"/>
-      <c r="BD8" s="44"/>
-      <c r="BE8" s="44"/>
-      <c r="BF8" s="44"/>
-      <c r="BG8" s="44"/>
-      <c r="BH8" s="44"/>
-      <c r="BI8" s="44"/>
-      <c r="BJ8" s="44"/>
-      <c r="BK8" s="44"/>
-      <c r="BL8" s="44"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="98"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="98"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="98"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="98"/>
+      <c r="AC8" s="98"/>
+      <c r="AD8" s="98"/>
+      <c r="AE8" s="98"/>
+      <c r="AF8" s="98"/>
+      <c r="AG8" s="99"/>
+      <c r="AH8" s="98"/>
+      <c r="AI8" s="98"/>
+      <c r="AJ8" s="98"/>
+      <c r="AK8" s="98"/>
+      <c r="AL8" s="98"/>
+      <c r="AM8" s="98"/>
+      <c r="AN8" s="98"/>
+      <c r="AO8" s="98"/>
+      <c r="AP8" s="98"/>
+      <c r="AQ8" s="98"/>
+      <c r="AR8" s="98"/>
+      <c r="AS8" s="98"/>
+      <c r="AT8" s="98"/>
+      <c r="AU8" s="98"/>
+      <c r="AV8" s="98"/>
+      <c r="AW8" s="98"/>
+      <c r="AX8" s="98"/>
+      <c r="AY8" s="98"/>
+      <c r="AZ8" s="98"/>
+      <c r="BA8" s="98"/>
+      <c r="BB8" s="98"/>
+      <c r="BC8" s="98"/>
+      <c r="BD8" s="98"/>
+      <c r="BE8" s="98"/>
+      <c r="BF8" s="98"/>
+      <c r="BG8" s="98"/>
+      <c r="BH8" s="98"/>
+      <c r="BI8" s="98"/>
+      <c r="BJ8" s="98"/>
+      <c r="BK8" s="98"/>
+      <c r="BL8" s="98"/>
     </row>
     <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="70" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="22">
         <v>1</v>
       </c>
-      <c r="E9" s="65">
+      <c r="E9" s="64">
         <f>Project_Start</f>
         <v>45233</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="64">
         <f>E9+0</f>
         <v>45233</v>
       </c>
@@ -2320,74 +2368,74 @@
       <c r="M9" s="44"/>
       <c r="N9" s="44"/>
       <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44"/>
-      <c r="AF9" s="44"/>
-      <c r="AG9" s="94"/>
-      <c r="AH9" s="44"/>
-      <c r="AI9" s="44"/>
-      <c r="AJ9" s="44"/>
-      <c r="AK9" s="44"/>
-      <c r="AL9" s="44"/>
-      <c r="AM9" s="44"/>
-      <c r="AN9" s="44"/>
-      <c r="AO9" s="44"/>
-      <c r="AP9" s="44"/>
-      <c r="AQ9" s="44"/>
-      <c r="AR9" s="44"/>
-      <c r="AS9" s="44"/>
-      <c r="AT9" s="44"/>
-      <c r="AU9" s="44"/>
-      <c r="AV9" s="44"/>
-      <c r="AW9" s="44"/>
-      <c r="AX9" s="44"/>
-      <c r="AY9" s="44"/>
-      <c r="AZ9" s="44"/>
-      <c r="BA9" s="44"/>
-      <c r="BB9" s="44"/>
-      <c r="BC9" s="44"/>
-      <c r="BD9" s="44"/>
-      <c r="BE9" s="44"/>
-      <c r="BF9" s="44"/>
-      <c r="BG9" s="44"/>
-      <c r="BH9" s="44"/>
-      <c r="BI9" s="44"/>
-      <c r="BJ9" s="44"/>
-      <c r="BK9" s="44"/>
-      <c r="BL9" s="44"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="98"/>
+      <c r="AF9" s="98"/>
+      <c r="AG9" s="99"/>
+      <c r="AH9" s="98"/>
+      <c r="AI9" s="98"/>
+      <c r="AJ9" s="98"/>
+      <c r="AK9" s="98"/>
+      <c r="AL9" s="98"/>
+      <c r="AM9" s="98"/>
+      <c r="AN9" s="98"/>
+      <c r="AO9" s="98"/>
+      <c r="AP9" s="98"/>
+      <c r="AQ9" s="98"/>
+      <c r="AR9" s="98"/>
+      <c r="AS9" s="98"/>
+      <c r="AT9" s="98"/>
+      <c r="AU9" s="98"/>
+      <c r="AV9" s="98"/>
+      <c r="AW9" s="98"/>
+      <c r="AX9" s="98"/>
+      <c r="AY9" s="98"/>
+      <c r="AZ9" s="98"/>
+      <c r="BA9" s="98"/>
+      <c r="BB9" s="98"/>
+      <c r="BC9" s="98"/>
+      <c r="BD9" s="98"/>
+      <c r="BE9" s="98"/>
+      <c r="BF9" s="98"/>
+      <c r="BG9" s="98"/>
+      <c r="BH9" s="98"/>
+      <c r="BI9" s="98"/>
+      <c r="BJ9" s="98"/>
+      <c r="BK9" s="98"/>
+      <c r="BL9" s="98"/>
     </row>
     <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="70" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="22">
         <v>1</v>
       </c>
-      <c r="E10" s="65">
+      <c r="E10" s="64">
         <f>F9</f>
         <v>45233</v>
       </c>
-      <c r="F10" s="65">
+      <c r="F10" s="64">
         <f>E10+0</f>
         <v>45233</v>
       </c>
@@ -2403,72 +2451,72 @@
       <c r="M10" s="44"/>
       <c r="N10" s="44"/>
       <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="44"/>
-      <c r="AG10" s="94"/>
-      <c r="AH10" s="44"/>
-      <c r="AI10" s="44"/>
-      <c r="AJ10" s="44"/>
-      <c r="AK10" s="44"/>
-      <c r="AL10" s="44"/>
-      <c r="AM10" s="44"/>
-      <c r="AN10" s="44"/>
-      <c r="AO10" s="44"/>
-      <c r="AP10" s="44"/>
-      <c r="AQ10" s="44"/>
-      <c r="AR10" s="44"/>
-      <c r="AS10" s="44"/>
-      <c r="AT10" s="44"/>
-      <c r="AU10" s="44"/>
-      <c r="AV10" s="44"/>
-      <c r="AW10" s="44"/>
-      <c r="AX10" s="44"/>
-      <c r="AY10" s="44"/>
-      <c r="AZ10" s="44"/>
-      <c r="BA10" s="44"/>
-      <c r="BB10" s="44"/>
-      <c r="BC10" s="44"/>
-      <c r="BD10" s="44"/>
-      <c r="BE10" s="44"/>
-      <c r="BF10" s="44"/>
-      <c r="BG10" s="44"/>
-      <c r="BH10" s="44"/>
-      <c r="BI10" s="44"/>
-      <c r="BJ10" s="44"/>
-      <c r="BK10" s="44"/>
-      <c r="BL10" s="44"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="100"/>
+      <c r="V10" s="100"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="98"/>
+      <c r="AD10" s="98"/>
+      <c r="AE10" s="98"/>
+      <c r="AF10" s="98"/>
+      <c r="AG10" s="99"/>
+      <c r="AH10" s="98"/>
+      <c r="AI10" s="98"/>
+      <c r="AJ10" s="98"/>
+      <c r="AK10" s="98"/>
+      <c r="AL10" s="98"/>
+      <c r="AM10" s="98"/>
+      <c r="AN10" s="98"/>
+      <c r="AO10" s="98"/>
+      <c r="AP10" s="98"/>
+      <c r="AQ10" s="98"/>
+      <c r="AR10" s="98"/>
+      <c r="AS10" s="98"/>
+      <c r="AT10" s="98"/>
+      <c r="AU10" s="98"/>
+      <c r="AV10" s="98"/>
+      <c r="AW10" s="98"/>
+      <c r="AX10" s="98"/>
+      <c r="AY10" s="98"/>
+      <c r="AZ10" s="98"/>
+      <c r="BA10" s="98"/>
+      <c r="BB10" s="98"/>
+      <c r="BC10" s="98"/>
+      <c r="BD10" s="98"/>
+      <c r="BE10" s="98"/>
+      <c r="BF10" s="98"/>
+      <c r="BG10" s="98"/>
+      <c r="BH10" s="98"/>
+      <c r="BI10" s="98"/>
+      <c r="BJ10" s="98"/>
+      <c r="BK10" s="98"/>
+      <c r="BL10" s="98"/>
     </row>
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
-      <c r="B11" s="79" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="70" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="22">
         <v>1</v>
       </c>
-      <c r="E11" s="65">
+      <c r="E11" s="64">
         <f>F10</f>
         <v>45233</v>
       </c>
-      <c r="F11" s="65">
+      <c r="F11" s="64">
         <f>E11+1</f>
         <v>45234</v>
       </c>
@@ -2484,72 +2532,72 @@
       <c r="M11" s="44"/>
       <c r="N11" s="44"/>
       <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="44"/>
-      <c r="AF11" s="44"/>
-      <c r="AG11" s="94"/>
-      <c r="AH11" s="44"/>
-      <c r="AI11" s="44"/>
-      <c r="AJ11" s="44"/>
-      <c r="AK11" s="44"/>
-      <c r="AL11" s="44"/>
-      <c r="AM11" s="44"/>
-      <c r="AN11" s="44"/>
-      <c r="AO11" s="44"/>
-      <c r="AP11" s="44"/>
-      <c r="AQ11" s="44"/>
-      <c r="AR11" s="44"/>
-      <c r="AS11" s="44"/>
-      <c r="AT11" s="44"/>
-      <c r="AU11" s="44"/>
-      <c r="AV11" s="44"/>
-      <c r="AW11" s="44"/>
-      <c r="AX11" s="44"/>
-      <c r="AY11" s="44"/>
-      <c r="AZ11" s="44"/>
-      <c r="BA11" s="44"/>
-      <c r="BB11" s="44"/>
-      <c r="BC11" s="44"/>
-      <c r="BD11" s="44"/>
-      <c r="BE11" s="44"/>
-      <c r="BF11" s="44"/>
-      <c r="BG11" s="44"/>
-      <c r="BH11" s="44"/>
-      <c r="BI11" s="44"/>
-      <c r="BJ11" s="44"/>
-      <c r="BK11" s="44"/>
-      <c r="BL11" s="44"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="98"/>
+      <c r="AF11" s="98"/>
+      <c r="AG11" s="99"/>
+      <c r="AH11" s="98"/>
+      <c r="AI11" s="98"/>
+      <c r="AJ11" s="98"/>
+      <c r="AK11" s="98"/>
+      <c r="AL11" s="98"/>
+      <c r="AM11" s="98"/>
+      <c r="AN11" s="98"/>
+      <c r="AO11" s="98"/>
+      <c r="AP11" s="98"/>
+      <c r="AQ11" s="98"/>
+      <c r="AR11" s="98"/>
+      <c r="AS11" s="98"/>
+      <c r="AT11" s="98"/>
+      <c r="AU11" s="98"/>
+      <c r="AV11" s="98"/>
+      <c r="AW11" s="98"/>
+      <c r="AX11" s="98"/>
+      <c r="AY11" s="98"/>
+      <c r="AZ11" s="98"/>
+      <c r="BA11" s="98"/>
+      <c r="BB11" s="98"/>
+      <c r="BC11" s="98"/>
+      <c r="BD11" s="98"/>
+      <c r="BE11" s="98"/>
+      <c r="BF11" s="98"/>
+      <c r="BG11" s="98"/>
+      <c r="BH11" s="98"/>
+      <c r="BI11" s="98"/>
+      <c r="BJ11" s="98"/>
+      <c r="BK11" s="98"/>
+      <c r="BL11" s="98"/>
     </row>
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
-      <c r="B12" s="79" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="70" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="22">
         <v>1</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="64">
         <f>F11</f>
         <v>45234</v>
       </c>
-      <c r="F12" s="65">
+      <c r="F12" s="64">
         <f>E12+3</f>
         <v>45237</v>
       </c>
@@ -2565,63 +2613,63 @@
       <c r="M12" s="44"/>
       <c r="N12" s="44"/>
       <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="44"/>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="94"/>
-      <c r="AH12" s="44"/>
-      <c r="AI12" s="44"/>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="44"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="44"/>
-      <c r="AO12" s="44"/>
-      <c r="AP12" s="44"/>
-      <c r="AQ12" s="44"/>
-      <c r="AR12" s="44"/>
-      <c r="AS12" s="44"/>
-      <c r="AT12" s="44"/>
-      <c r="AU12" s="44"/>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
-      <c r="BA12" s="44"/>
-      <c r="BB12" s="44"/>
-      <c r="BC12" s="44"/>
-      <c r="BD12" s="44"/>
-      <c r="BE12" s="44"/>
-      <c r="BF12" s="44"/>
-      <c r="BG12" s="44"/>
-      <c r="BH12" s="44"/>
-      <c r="BI12" s="44"/>
-      <c r="BJ12" s="44"/>
-      <c r="BK12" s="44"/>
-      <c r="BL12" s="44"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="100"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="98"/>
+      <c r="AF12" s="98"/>
+      <c r="AG12" s="99"/>
+      <c r="AH12" s="98"/>
+      <c r="AI12" s="98"/>
+      <c r="AJ12" s="98"/>
+      <c r="AK12" s="98"/>
+      <c r="AL12" s="98"/>
+      <c r="AM12" s="98"/>
+      <c r="AN12" s="98"/>
+      <c r="AO12" s="98"/>
+      <c r="AP12" s="98"/>
+      <c r="AQ12" s="98"/>
+      <c r="AR12" s="98"/>
+      <c r="AS12" s="98"/>
+      <c r="AT12" s="98"/>
+      <c r="AU12" s="98"/>
+      <c r="AV12" s="98"/>
+      <c r="AW12" s="98"/>
+      <c r="AX12" s="98"/>
+      <c r="AY12" s="98"/>
+      <c r="AZ12" s="98"/>
+      <c r="BA12" s="98"/>
+      <c r="BB12" s="98"/>
+      <c r="BC12" s="98"/>
+      <c r="BD12" s="98"/>
+      <c r="BE12" s="98"/>
+      <c r="BF12" s="98"/>
+      <c r="BG12" s="98"/>
+      <c r="BH12" s="98"/>
+      <c r="BI12" s="98"/>
+      <c r="BJ12" s="98"/>
+      <c r="BK12" s="98"/>
+      <c r="BL12" s="98"/>
     </row>
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="71"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="22"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17" t="str">
         <f t="shared" si="6"/>
@@ -2634,64 +2682,64 @@
       <c r="M13" s="44"/>
       <c r="N13" s="44"/>
       <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="94"/>
-      <c r="AH13" s="44"/>
-      <c r="AI13" s="44"/>
-      <c r="AJ13" s="44"/>
-      <c r="AK13" s="44"/>
-      <c r="AL13" s="44"/>
-      <c r="AM13" s="44"/>
-      <c r="AN13" s="44"/>
-      <c r="AO13" s="44"/>
-      <c r="AP13" s="44"/>
-      <c r="AQ13" s="44"/>
-      <c r="AR13" s="44"/>
-      <c r="AS13" s="44"/>
-      <c r="AT13" s="44"/>
-      <c r="AU13" s="44"/>
-      <c r="AV13" s="44"/>
-      <c r="AW13" s="44"/>
-      <c r="AX13" s="44"/>
-      <c r="AY13" s="44"/>
-      <c r="AZ13" s="44"/>
-      <c r="BA13" s="44"/>
-      <c r="BB13" s="44"/>
-      <c r="BC13" s="44"/>
-      <c r="BD13" s="44"/>
-      <c r="BE13" s="44"/>
-      <c r="BF13" s="44"/>
-      <c r="BG13" s="44"/>
-      <c r="BH13" s="44"/>
-      <c r="BI13" s="44"/>
-      <c r="BJ13" s="44"/>
-      <c r="BK13" s="44"/>
-      <c r="BL13" s="44"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="98"/>
+      <c r="AF13" s="98"/>
+      <c r="AG13" s="99"/>
+      <c r="AH13" s="98"/>
+      <c r="AI13" s="98"/>
+      <c r="AJ13" s="98"/>
+      <c r="AK13" s="98"/>
+      <c r="AL13" s="98"/>
+      <c r="AM13" s="98"/>
+      <c r="AN13" s="98"/>
+      <c r="AO13" s="98"/>
+      <c r="AP13" s="98"/>
+      <c r="AQ13" s="98"/>
+      <c r="AR13" s="98"/>
+      <c r="AS13" s="98"/>
+      <c r="AT13" s="98"/>
+      <c r="AU13" s="98"/>
+      <c r="AV13" s="98"/>
+      <c r="AW13" s="98"/>
+      <c r="AX13" s="98"/>
+      <c r="AY13" s="98"/>
+      <c r="AZ13" s="98"/>
+      <c r="BA13" s="98"/>
+      <c r="BB13" s="98"/>
+      <c r="BC13" s="98"/>
+      <c r="BD13" s="98"/>
+      <c r="BE13" s="98"/>
+      <c r="BF13" s="98"/>
+      <c r="BG13" s="98"/>
+      <c r="BH13" s="98"/>
+      <c r="BI13" s="98"/>
+      <c r="BJ13" s="98"/>
+      <c r="BK13" s="98"/>
+      <c r="BL13" s="98"/>
     </row>
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="58" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="72"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
       <c r="F14" s="26"/>
@@ -2707,72 +2755,72 @@
       <c r="M14" s="44"/>
       <c r="N14" s="44"/>
       <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="44"/>
-      <c r="AC14" s="44"/>
-      <c r="AD14" s="44"/>
-      <c r="AE14" s="44"/>
-      <c r="AF14" s="44"/>
-      <c r="AG14" s="94"/>
-      <c r="AH14" s="44"/>
-      <c r="AI14" s="44"/>
-      <c r="AJ14" s="44"/>
-      <c r="AK14" s="44"/>
-      <c r="AL14" s="44"/>
-      <c r="AM14" s="44"/>
-      <c r="AN14" s="44"/>
-      <c r="AO14" s="44"/>
-      <c r="AP14" s="44"/>
-      <c r="AQ14" s="44"/>
-      <c r="AR14" s="44"/>
-      <c r="AS14" s="44"/>
-      <c r="AT14" s="44"/>
-      <c r="AU14" s="44"/>
-      <c r="AV14" s="44"/>
-      <c r="AW14" s="44"/>
-      <c r="AX14" s="44"/>
-      <c r="AY14" s="44"/>
-      <c r="AZ14" s="44"/>
-      <c r="BA14" s="44"/>
-      <c r="BB14" s="44"/>
-      <c r="BC14" s="44"/>
-      <c r="BD14" s="44"/>
-      <c r="BE14" s="44"/>
-      <c r="BF14" s="44"/>
-      <c r="BG14" s="44"/>
-      <c r="BH14" s="44"/>
-      <c r="BI14" s="44"/>
-      <c r="BJ14" s="44"/>
-      <c r="BK14" s="44"/>
-      <c r="BL14" s="44"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="98"/>
+      <c r="AF14" s="98"/>
+      <c r="AG14" s="99"/>
+      <c r="AH14" s="98"/>
+      <c r="AI14" s="98"/>
+      <c r="AJ14" s="98"/>
+      <c r="AK14" s="98"/>
+      <c r="AL14" s="98"/>
+      <c r="AM14" s="98"/>
+      <c r="AN14" s="98"/>
+      <c r="AO14" s="98"/>
+      <c r="AP14" s="98"/>
+      <c r="AQ14" s="98"/>
+      <c r="AR14" s="98"/>
+      <c r="AS14" s="98"/>
+      <c r="AT14" s="98"/>
+      <c r="AU14" s="98"/>
+      <c r="AV14" s="98"/>
+      <c r="AW14" s="98"/>
+      <c r="AX14" s="98"/>
+      <c r="AY14" s="98"/>
+      <c r="AZ14" s="98"/>
+      <c r="BA14" s="98"/>
+      <c r="BB14" s="98"/>
+      <c r="BC14" s="98"/>
+      <c r="BD14" s="98"/>
+      <c r="BE14" s="98"/>
+      <c r="BF14" s="98"/>
+      <c r="BG14" s="98"/>
+      <c r="BH14" s="98"/>
+      <c r="BI14" s="98"/>
+      <c r="BJ14" s="98"/>
+      <c r="BK14" s="98"/>
+      <c r="BL14" s="98"/>
     </row>
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
-      <c r="B15" s="80" t="s">
+      <c r="A15" s="58"/>
+      <c r="B15" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="72" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="27">
         <v>1</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E15" s="65">
         <f>F12+1</f>
         <v>45238</v>
       </c>
-      <c r="F15" s="66">
+      <c r="F15" s="65">
         <f>E15+0</f>
         <v>45238</v>
       </c>
@@ -2788,72 +2836,72 @@
       <c r="M15" s="44"/>
       <c r="N15" s="44"/>
       <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="44"/>
-      <c r="AC15" s="44"/>
-      <c r="AD15" s="44"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="44"/>
-      <c r="AG15" s="94"/>
-      <c r="AH15" s="44"/>
-      <c r="AI15" s="44"/>
-      <c r="AJ15" s="44"/>
-      <c r="AK15" s="44"/>
-      <c r="AL15" s="44"/>
-      <c r="AM15" s="44"/>
-      <c r="AN15" s="44"/>
-      <c r="AO15" s="44"/>
-      <c r="AP15" s="44"/>
-      <c r="AQ15" s="44"/>
-      <c r="AR15" s="44"/>
-      <c r="AS15" s="44"/>
-      <c r="AT15" s="44"/>
-      <c r="AU15" s="44"/>
-      <c r="AV15" s="44"/>
-      <c r="AW15" s="44"/>
-      <c r="AX15" s="44"/>
-      <c r="AY15" s="44"/>
-      <c r="AZ15" s="44"/>
-      <c r="BA15" s="44"/>
-      <c r="BB15" s="44"/>
-      <c r="BC15" s="44"/>
-      <c r="BD15" s="44"/>
-      <c r="BE15" s="44"/>
-      <c r="BF15" s="44"/>
-      <c r="BG15" s="44"/>
-      <c r="BH15" s="44"/>
-      <c r="BI15" s="44"/>
-      <c r="BJ15" s="44"/>
-      <c r="BK15" s="44"/>
-      <c r="BL15" s="44"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="98"/>
+      <c r="AF15" s="98"/>
+      <c r="AG15" s="99"/>
+      <c r="AH15" s="98"/>
+      <c r="AI15" s="98"/>
+      <c r="AJ15" s="98"/>
+      <c r="AK15" s="98"/>
+      <c r="AL15" s="98"/>
+      <c r="AM15" s="98"/>
+      <c r="AN15" s="98"/>
+      <c r="AO15" s="98"/>
+      <c r="AP15" s="98"/>
+      <c r="AQ15" s="98"/>
+      <c r="AR15" s="98"/>
+      <c r="AS15" s="98"/>
+      <c r="AT15" s="98"/>
+      <c r="AU15" s="98"/>
+      <c r="AV15" s="98"/>
+      <c r="AW15" s="98"/>
+      <c r="AX15" s="98"/>
+      <c r="AY15" s="98"/>
+      <c r="AZ15" s="98"/>
+      <c r="BA15" s="98"/>
+      <c r="BB15" s="98"/>
+      <c r="BC15" s="98"/>
+      <c r="BD15" s="98"/>
+      <c r="BE15" s="98"/>
+      <c r="BF15" s="98"/>
+      <c r="BG15" s="98"/>
+      <c r="BH15" s="98"/>
+      <c r="BI15" s="98"/>
+      <c r="BJ15" s="98"/>
+      <c r="BK15" s="98"/>
+      <c r="BL15" s="98"/>
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
-      <c r="B16" s="80" t="s">
+      <c r="A16" s="57"/>
+      <c r="B16" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="72" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="27">
         <v>1</v>
       </c>
-      <c r="E16" s="66">
+      <c r="E16" s="65">
         <f>F15+0</f>
         <v>45238</v>
       </c>
-      <c r="F16" s="66">
+      <c r="F16" s="65">
         <f>E16+0</f>
         <v>45238</v>
       </c>
@@ -2869,72 +2917,72 @@
       <c r="M16" s="44"/>
       <c r="N16" s="44"/>
       <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="44"/>
-      <c r="AC16" s="44"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="44"/>
-      <c r="AF16" s="44"/>
-      <c r="AG16" s="94"/>
-      <c r="AH16" s="44"/>
-      <c r="AI16" s="44"/>
-      <c r="AJ16" s="44"/>
-      <c r="AK16" s="44"/>
-      <c r="AL16" s="44"/>
-      <c r="AM16" s="44"/>
-      <c r="AN16" s="44"/>
-      <c r="AO16" s="44"/>
-      <c r="AP16" s="44"/>
-      <c r="AQ16" s="44"/>
-      <c r="AR16" s="44"/>
-      <c r="AS16" s="44"/>
-      <c r="AT16" s="44"/>
-      <c r="AU16" s="44"/>
-      <c r="AV16" s="44"/>
-      <c r="AW16" s="44"/>
-      <c r="AX16" s="44"/>
-      <c r="AY16" s="44"/>
-      <c r="AZ16" s="44"/>
-      <c r="BA16" s="44"/>
-      <c r="BB16" s="44"/>
-      <c r="BC16" s="44"/>
-      <c r="BD16" s="44"/>
-      <c r="BE16" s="44"/>
-      <c r="BF16" s="44"/>
-      <c r="BG16" s="44"/>
-      <c r="BH16" s="44"/>
-      <c r="BI16" s="44"/>
-      <c r="BJ16" s="44"/>
-      <c r="BK16" s="44"/>
-      <c r="BL16" s="44"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="100"/>
+      <c r="V16" s="100"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="98"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="98"/>
+      <c r="AF16" s="98"/>
+      <c r="AG16" s="99"/>
+      <c r="AH16" s="98"/>
+      <c r="AI16" s="98"/>
+      <c r="AJ16" s="98"/>
+      <c r="AK16" s="98"/>
+      <c r="AL16" s="98"/>
+      <c r="AM16" s="98"/>
+      <c r="AN16" s="98"/>
+      <c r="AO16" s="98"/>
+      <c r="AP16" s="98"/>
+      <c r="AQ16" s="98"/>
+      <c r="AR16" s="98"/>
+      <c r="AS16" s="98"/>
+      <c r="AT16" s="98"/>
+      <c r="AU16" s="98"/>
+      <c r="AV16" s="98"/>
+      <c r="AW16" s="98"/>
+      <c r="AX16" s="98"/>
+      <c r="AY16" s="98"/>
+      <c r="AZ16" s="98"/>
+      <c r="BA16" s="98"/>
+      <c r="BB16" s="98"/>
+      <c r="BC16" s="98"/>
+      <c r="BD16" s="98"/>
+      <c r="BE16" s="98"/>
+      <c r="BF16" s="98"/>
+      <c r="BG16" s="98"/>
+      <c r="BH16" s="98"/>
+      <c r="BI16" s="98"/>
+      <c r="BJ16" s="98"/>
+      <c r="BK16" s="98"/>
+      <c r="BL16" s="98"/>
     </row>
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="80" t="s">
+      <c r="A17" s="57"/>
+      <c r="B17" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="72" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="27">
         <v>1</v>
       </c>
-      <c r="E17" s="66">
+      <c r="E17" s="65">
         <f>F16+0</f>
         <v>45238</v>
       </c>
-      <c r="F17" s="66">
+      <c r="F17" s="65">
         <f>E17+0</f>
         <v>45238</v>
       </c>
@@ -2950,72 +2998,72 @@
       <c r="M17" s="44"/>
       <c r="N17" s="44"/>
       <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="44"/>
-      <c r="AC17" s="44"/>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="44"/>
-      <c r="AF17" s="44"/>
-      <c r="AG17" s="94"/>
-      <c r="AH17" s="44"/>
-      <c r="AI17" s="44"/>
-      <c r="AJ17" s="44"/>
-      <c r="AK17" s="44"/>
-      <c r="AL17" s="44"/>
-      <c r="AM17" s="44"/>
-      <c r="AN17" s="44"/>
-      <c r="AO17" s="44"/>
-      <c r="AP17" s="44"/>
-      <c r="AQ17" s="44"/>
-      <c r="AR17" s="44"/>
-      <c r="AS17" s="44"/>
-      <c r="AT17" s="44"/>
-      <c r="AU17" s="44"/>
-      <c r="AV17" s="44"/>
-      <c r="AW17" s="44"/>
-      <c r="AX17" s="44"/>
-      <c r="AY17" s="44"/>
-      <c r="AZ17" s="44"/>
-      <c r="BA17" s="44"/>
-      <c r="BB17" s="44"/>
-      <c r="BC17" s="44"/>
-      <c r="BD17" s="44"/>
-      <c r="BE17" s="44"/>
-      <c r="BF17" s="44"/>
-      <c r="BG17" s="44"/>
-      <c r="BH17" s="44"/>
-      <c r="BI17" s="44"/>
-      <c r="BJ17" s="44"/>
-      <c r="BK17" s="44"/>
-      <c r="BL17" s="44"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="98"/>
+      <c r="AC17" s="98"/>
+      <c r="AD17" s="98"/>
+      <c r="AE17" s="98"/>
+      <c r="AF17" s="98"/>
+      <c r="AG17" s="99"/>
+      <c r="AH17" s="98"/>
+      <c r="AI17" s="98"/>
+      <c r="AJ17" s="98"/>
+      <c r="AK17" s="98"/>
+      <c r="AL17" s="98"/>
+      <c r="AM17" s="98"/>
+      <c r="AN17" s="98"/>
+      <c r="AO17" s="98"/>
+      <c r="AP17" s="98"/>
+      <c r="AQ17" s="98"/>
+      <c r="AR17" s="98"/>
+      <c r="AS17" s="98"/>
+      <c r="AT17" s="98"/>
+      <c r="AU17" s="98"/>
+      <c r="AV17" s="98"/>
+      <c r="AW17" s="98"/>
+      <c r="AX17" s="98"/>
+      <c r="AY17" s="98"/>
+      <c r="AZ17" s="98"/>
+      <c r="BA17" s="98"/>
+      <c r="BB17" s="98"/>
+      <c r="BC17" s="98"/>
+      <c r="BD17" s="98"/>
+      <c r="BE17" s="98"/>
+      <c r="BF17" s="98"/>
+      <c r="BG17" s="98"/>
+      <c r="BH17" s="98"/>
+      <c r="BI17" s="98"/>
+      <c r="BJ17" s="98"/>
+      <c r="BK17" s="98"/>
+      <c r="BL17" s="98"/>
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="80" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="72" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="27">
-        <v>0</v>
-      </c>
-      <c r="E18" s="66">
+        <v>1</v>
+      </c>
+      <c r="E18" s="65">
         <f>F17+1</f>
         <v>45239</v>
       </c>
-      <c r="F18" s="66">
+      <c r="F18" s="65">
         <f>E18+1</f>
         <v>45240</v>
       </c>
@@ -3031,72 +3079,72 @@
       <c r="M18" s="44"/>
       <c r="N18" s="44"/>
       <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="44"/>
-      <c r="AC18" s="44"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="44"/>
-      <c r="AF18" s="44"/>
-      <c r="AG18" s="94"/>
-      <c r="AH18" s="44"/>
-      <c r="AI18" s="44"/>
-      <c r="AJ18" s="44"/>
-      <c r="AK18" s="44"/>
-      <c r="AL18" s="44"/>
-      <c r="AM18" s="44"/>
-      <c r="AN18" s="44"/>
-      <c r="AO18" s="44"/>
-      <c r="AP18" s="44"/>
-      <c r="AQ18" s="44"/>
-      <c r="AR18" s="44"/>
-      <c r="AS18" s="44"/>
-      <c r="AT18" s="44"/>
-      <c r="AU18" s="44"/>
-      <c r="AV18" s="44"/>
-      <c r="AW18" s="44"/>
-      <c r="AX18" s="44"/>
-      <c r="AY18" s="44"/>
-      <c r="AZ18" s="44"/>
-      <c r="BA18" s="44"/>
-      <c r="BB18" s="44"/>
-      <c r="BC18" s="44"/>
-      <c r="BD18" s="44"/>
-      <c r="BE18" s="44"/>
-      <c r="BF18" s="44"/>
-      <c r="BG18" s="44"/>
-      <c r="BH18" s="44"/>
-      <c r="BI18" s="44"/>
-      <c r="BJ18" s="44"/>
-      <c r="BK18" s="44"/>
-      <c r="BL18" s="44"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="100"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="98"/>
+      <c r="AF18" s="98"/>
+      <c r="AG18" s="99"/>
+      <c r="AH18" s="98"/>
+      <c r="AI18" s="98"/>
+      <c r="AJ18" s="98"/>
+      <c r="AK18" s="98"/>
+      <c r="AL18" s="98"/>
+      <c r="AM18" s="98"/>
+      <c r="AN18" s="98"/>
+      <c r="AO18" s="98"/>
+      <c r="AP18" s="98"/>
+      <c r="AQ18" s="98"/>
+      <c r="AR18" s="98"/>
+      <c r="AS18" s="98"/>
+      <c r="AT18" s="98"/>
+      <c r="AU18" s="98"/>
+      <c r="AV18" s="98"/>
+      <c r="AW18" s="98"/>
+      <c r="AX18" s="98"/>
+      <c r="AY18" s="98"/>
+      <c r="AZ18" s="98"/>
+      <c r="BA18" s="98"/>
+      <c r="BB18" s="98"/>
+      <c r="BC18" s="98"/>
+      <c r="BD18" s="98"/>
+      <c r="BE18" s="98"/>
+      <c r="BF18" s="98"/>
+      <c r="BG18" s="98"/>
+      <c r="BH18" s="98"/>
+      <c r="BI18" s="98"/>
+      <c r="BJ18" s="98"/>
+      <c r="BK18" s="98"/>
+      <c r="BL18" s="98"/>
     </row>
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="80" t="s">
+      <c r="A19" s="57"/>
+      <c r="B19" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="72" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="27">
-        <v>0</v>
-      </c>
-      <c r="E19" s="66">
+        <v>1</v>
+      </c>
+      <c r="E19" s="65">
         <f>F18+1</f>
         <v>45241</v>
       </c>
-      <c r="F19" s="66">
+      <c r="F19" s="65">
         <f>E19+1</f>
         <v>45242</v>
       </c>
@@ -3112,64 +3160,64 @@
       <c r="M19" s="44"/>
       <c r="N19" s="44"/>
       <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="44"/>
-      <c r="AC19" s="44"/>
-      <c r="AD19" s="44"/>
-      <c r="AE19" s="44"/>
-      <c r="AF19" s="44"/>
-      <c r="AG19" s="94"/>
-      <c r="AH19" s="44"/>
-      <c r="AI19" s="44"/>
-      <c r="AJ19" s="44"/>
-      <c r="AK19" s="44"/>
-      <c r="AL19" s="44"/>
-      <c r="AM19" s="44"/>
-      <c r="AN19" s="44"/>
-      <c r="AO19" s="44"/>
-      <c r="AP19" s="44"/>
-      <c r="AQ19" s="44"/>
-      <c r="AR19" s="44"/>
-      <c r="AS19" s="44"/>
-      <c r="AT19" s="44"/>
-      <c r="AU19" s="44"/>
-      <c r="AV19" s="44"/>
-      <c r="AW19" s="44"/>
-      <c r="AX19" s="44"/>
-      <c r="AY19" s="44"/>
-      <c r="AZ19" s="44"/>
-      <c r="BA19" s="44"/>
-      <c r="BB19" s="44"/>
-      <c r="BC19" s="44"/>
-      <c r="BD19" s="44"/>
-      <c r="BE19" s="44"/>
-      <c r="BF19" s="44"/>
-      <c r="BG19" s="44"/>
-      <c r="BH19" s="44"/>
-      <c r="BI19" s="44"/>
-      <c r="BJ19" s="44"/>
-      <c r="BK19" s="44"/>
-      <c r="BL19" s="44"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="98"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="98"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="98"/>
+      <c r="AF19" s="98"/>
+      <c r="AG19" s="99"/>
+      <c r="AH19" s="98"/>
+      <c r="AI19" s="98"/>
+      <c r="AJ19" s="98"/>
+      <c r="AK19" s="98"/>
+      <c r="AL19" s="98"/>
+      <c r="AM19" s="98"/>
+      <c r="AN19" s="98"/>
+      <c r="AO19" s="98"/>
+      <c r="AP19" s="98"/>
+      <c r="AQ19" s="98"/>
+      <c r="AR19" s="98"/>
+      <c r="AS19" s="98"/>
+      <c r="AT19" s="98"/>
+      <c r="AU19" s="98"/>
+      <c r="AV19" s="98"/>
+      <c r="AW19" s="98"/>
+      <c r="AX19" s="98"/>
+      <c r="AY19" s="98"/>
+      <c r="AZ19" s="98"/>
+      <c r="BA19" s="98"/>
+      <c r="BB19" s="98"/>
+      <c r="BC19" s="98"/>
+      <c r="BD19" s="98"/>
+      <c r="BE19" s="98"/>
+      <c r="BF19" s="98"/>
+      <c r="BG19" s="98"/>
+      <c r="BH19" s="98"/>
+      <c r="BI19" s="98"/>
+      <c r="BJ19" s="98"/>
+      <c r="BK19" s="98"/>
+      <c r="BL19" s="98"/>
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="57" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="74"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
       <c r="F20" s="31"/>
@@ -3185,72 +3233,72 @@
       <c r="M20" s="44"/>
       <c r="N20" s="44"/>
       <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="44"/>
-      <c r="AF20" s="44"/>
-      <c r="AG20" s="94"/>
-      <c r="AH20" s="44"/>
-      <c r="AI20" s="44"/>
-      <c r="AJ20" s="44"/>
-      <c r="AK20" s="44"/>
-      <c r="AL20" s="44"/>
-      <c r="AM20" s="44"/>
-      <c r="AN20" s="44"/>
-      <c r="AO20" s="44"/>
-      <c r="AP20" s="44"/>
-      <c r="AQ20" s="44"/>
-      <c r="AR20" s="44"/>
-      <c r="AS20" s="44"/>
-      <c r="AT20" s="44"/>
-      <c r="AU20" s="44"/>
-      <c r="AV20" s="44"/>
-      <c r="AW20" s="44"/>
-      <c r="AX20" s="44"/>
-      <c r="AY20" s="44"/>
-      <c r="AZ20" s="44"/>
-      <c r="BA20" s="44"/>
-      <c r="BB20" s="44"/>
-      <c r="BC20" s="44"/>
-      <c r="BD20" s="44"/>
-      <c r="BE20" s="44"/>
-      <c r="BF20" s="44"/>
-      <c r="BG20" s="44"/>
-      <c r="BH20" s="44"/>
-      <c r="BI20" s="44"/>
-      <c r="BJ20" s="44"/>
-      <c r="BK20" s="44"/>
-      <c r="BL20" s="44"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="98"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="98"/>
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="98"/>
+      <c r="AF20" s="98"/>
+      <c r="AG20" s="99"/>
+      <c r="AH20" s="98"/>
+      <c r="AI20" s="98"/>
+      <c r="AJ20" s="98"/>
+      <c r="AK20" s="98"/>
+      <c r="AL20" s="98"/>
+      <c r="AM20" s="98"/>
+      <c r="AN20" s="98"/>
+      <c r="AO20" s="98"/>
+      <c r="AP20" s="98"/>
+      <c r="AQ20" s="98"/>
+      <c r="AR20" s="98"/>
+      <c r="AS20" s="98"/>
+      <c r="AT20" s="98"/>
+      <c r="AU20" s="98"/>
+      <c r="AV20" s="98"/>
+      <c r="AW20" s="98"/>
+      <c r="AX20" s="98"/>
+      <c r="AY20" s="98"/>
+      <c r="AZ20" s="98"/>
+      <c r="BA20" s="98"/>
+      <c r="BB20" s="98"/>
+      <c r="BC20" s="98"/>
+      <c r="BD20" s="98"/>
+      <c r="BE20" s="98"/>
+      <c r="BF20" s="98"/>
+      <c r="BG20" s="98"/>
+      <c r="BH20" s="98"/>
+      <c r="BI20" s="98"/>
+      <c r="BJ20" s="98"/>
+      <c r="BK20" s="98"/>
+      <c r="BL20" s="98"/>
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="81" t="s">
+      <c r="A21" s="57"/>
+      <c r="B21" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="74" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="32">
-        <v>0</v>
-      </c>
-      <c r="E21" s="67">
+        <v>1</v>
+      </c>
+      <c r="E21" s="66">
         <f>F19+0</f>
         <v>45242</v>
       </c>
-      <c r="F21" s="67">
+      <c r="F21" s="66">
         <f>E21+2</f>
         <v>45244</v>
       </c>
@@ -3266,72 +3314,72 @@
       <c r="M21" s="44"/>
       <c r="N21" s="44"/>
       <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="44"/>
-      <c r="AF21" s="44"/>
-      <c r="AG21" s="94"/>
-      <c r="AH21" s="44"/>
-      <c r="AI21" s="44"/>
-      <c r="AJ21" s="44"/>
-      <c r="AK21" s="44"/>
-      <c r="AL21" s="44"/>
-      <c r="AM21" s="44"/>
-      <c r="AN21" s="44"/>
-      <c r="AO21" s="44"/>
-      <c r="AP21" s="44"/>
-      <c r="AQ21" s="44"/>
-      <c r="AR21" s="44"/>
-      <c r="AS21" s="44"/>
-      <c r="AT21" s="44"/>
-      <c r="AU21" s="44"/>
-      <c r="AV21" s="44"/>
-      <c r="AW21" s="44"/>
-      <c r="AX21" s="44"/>
-      <c r="AY21" s="44"/>
-      <c r="AZ21" s="44"/>
-      <c r="BA21" s="44"/>
-      <c r="BB21" s="44"/>
-      <c r="BC21" s="44"/>
-      <c r="BD21" s="44"/>
-      <c r="BE21" s="44"/>
-      <c r="BF21" s="44"/>
-      <c r="BG21" s="44"/>
-      <c r="BH21" s="44"/>
-      <c r="BI21" s="44"/>
-      <c r="BJ21" s="44"/>
-      <c r="BK21" s="44"/>
-      <c r="BL21" s="44"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="98"/>
+      <c r="AF21" s="98"/>
+      <c r="AG21" s="99"/>
+      <c r="AH21" s="98"/>
+      <c r="AI21" s="98"/>
+      <c r="AJ21" s="98"/>
+      <c r="AK21" s="98"/>
+      <c r="AL21" s="98"/>
+      <c r="AM21" s="98"/>
+      <c r="AN21" s="98"/>
+      <c r="AO21" s="98"/>
+      <c r="AP21" s="98"/>
+      <c r="AQ21" s="98"/>
+      <c r="AR21" s="98"/>
+      <c r="AS21" s="98"/>
+      <c r="AT21" s="98"/>
+      <c r="AU21" s="98"/>
+      <c r="AV21" s="98"/>
+      <c r="AW21" s="98"/>
+      <c r="AX21" s="98"/>
+      <c r="AY21" s="98"/>
+      <c r="AZ21" s="98"/>
+      <c r="BA21" s="98"/>
+      <c r="BB21" s="98"/>
+      <c r="BC21" s="98"/>
+      <c r="BD21" s="98"/>
+      <c r="BE21" s="98"/>
+      <c r="BF21" s="98"/>
+      <c r="BG21" s="98"/>
+      <c r="BH21" s="98"/>
+      <c r="BI21" s="98"/>
+      <c r="BJ21" s="98"/>
+      <c r="BK21" s="98"/>
+      <c r="BL21" s="98"/>
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="81" t="s">
+      <c r="A22" s="57"/>
+      <c r="B22" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="74" t="s">
         <v>41</v>
       </c>
       <c r="D22" s="32">
-        <v>0</v>
-      </c>
-      <c r="E22" s="67">
+        <v>1</v>
+      </c>
+      <c r="E22" s="66">
         <f>F21+0</f>
         <v>45244</v>
       </c>
-      <c r="F22" s="67">
+      <c r="F22" s="66">
         <f>E22+0</f>
         <v>45244</v>
       </c>
@@ -3347,74 +3395,74 @@
       <c r="M22" s="44"/>
       <c r="N22" s="44"/>
       <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="44"/>
-      <c r="AF22" s="44"/>
-      <c r="AG22" s="94"/>
-      <c r="AH22" s="44"/>
-      <c r="AI22" s="44"/>
-      <c r="AJ22" s="44"/>
-      <c r="AK22" s="44"/>
-      <c r="AL22" s="44"/>
-      <c r="AM22" s="44"/>
-      <c r="AN22" s="44"/>
-      <c r="AO22" s="44"/>
-      <c r="AP22" s="44"/>
-      <c r="AQ22" s="44"/>
-      <c r="AR22" s="44"/>
-      <c r="AS22" s="44"/>
-      <c r="AT22" s="44"/>
-      <c r="AU22" s="44"/>
-      <c r="AV22" s="44"/>
-      <c r="AW22" s="44"/>
-      <c r="AX22" s="44"/>
-      <c r="AY22" s="44"/>
-      <c r="AZ22" s="44"/>
-      <c r="BA22" s="44"/>
-      <c r="BB22" s="44"/>
-      <c r="BC22" s="44"/>
-      <c r="BD22" s="44"/>
-      <c r="BE22" s="44"/>
-      <c r="BF22" s="44"/>
-      <c r="BG22" s="44"/>
-      <c r="BH22" s="44"/>
-      <c r="BI22" s="44"/>
-      <c r="BJ22" s="44"/>
-      <c r="BK22" s="44"/>
-      <c r="BL22" s="44"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="98"/>
+      <c r="AB22" s="98"/>
+      <c r="AC22" s="98"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="98"/>
+      <c r="AF22" s="98"/>
+      <c r="AG22" s="99"/>
+      <c r="AH22" s="98"/>
+      <c r="AI22" s="98"/>
+      <c r="AJ22" s="98"/>
+      <c r="AK22" s="98"/>
+      <c r="AL22" s="98"/>
+      <c r="AM22" s="98"/>
+      <c r="AN22" s="98"/>
+      <c r="AO22" s="98"/>
+      <c r="AP22" s="98"/>
+      <c r="AQ22" s="98"/>
+      <c r="AR22" s="98"/>
+      <c r="AS22" s="98"/>
+      <c r="AT22" s="98"/>
+      <c r="AU22" s="98"/>
+      <c r="AV22" s="98"/>
+      <c r="AW22" s="98"/>
+      <c r="AX22" s="98"/>
+      <c r="AY22" s="98"/>
+      <c r="AZ22" s="98"/>
+      <c r="BA22" s="98"/>
+      <c r="BB22" s="98"/>
+      <c r="BC22" s="98"/>
+      <c r="BD22" s="98"/>
+      <c r="BE22" s="98"/>
+      <c r="BF22" s="98"/>
+      <c r="BG22" s="98"/>
+      <c r="BH22" s="98"/>
+      <c r="BI22" s="98"/>
+      <c r="BJ22" s="98"/>
+      <c r="BK22" s="98"/>
+      <c r="BL22" s="98"/>
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
-      <c r="B23" s="81" t="s">
+      <c r="A23" s="57"/>
+      <c r="B23" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="74" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="32">
-        <v>0</v>
-      </c>
-      <c r="E23" s="67">
-        <f>F22+0</f>
-        <v>45244</v>
-      </c>
-      <c r="F23" s="67">
+        <v>1</v>
+      </c>
+      <c r="E23" s="66">
+        <f>F22+1</f>
+        <v>45245</v>
+      </c>
+      <c r="F23" s="66">
         <f>E23+0</f>
-        <v>45244</v>
+        <v>45245</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17">
@@ -3428,63 +3476,63 @@
       <c r="M23" s="44"/>
       <c r="N23" s="44"/>
       <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="94"/>
-      <c r="AH23" s="44"/>
-      <c r="AI23" s="44"/>
-      <c r="AJ23" s="44"/>
-      <c r="AK23" s="44"/>
-      <c r="AL23" s="44"/>
-      <c r="AM23" s="44"/>
-      <c r="AN23" s="44"/>
-      <c r="AO23" s="44"/>
-      <c r="AP23" s="44"/>
-      <c r="AQ23" s="44"/>
-      <c r="AR23" s="44"/>
-      <c r="AS23" s="44"/>
-      <c r="AT23" s="44"/>
-      <c r="AU23" s="44"/>
-      <c r="AV23" s="44"/>
-      <c r="AW23" s="44"/>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="44"/>
-      <c r="BA23" s="44"/>
-      <c r="BB23" s="44"/>
-      <c r="BC23" s="44"/>
-      <c r="BD23" s="44"/>
-      <c r="BE23" s="44"/>
-      <c r="BF23" s="44"/>
-      <c r="BG23" s="44"/>
-      <c r="BH23" s="44"/>
-      <c r="BI23" s="44"/>
-      <c r="BJ23" s="44"/>
-      <c r="BK23" s="44"/>
-      <c r="BL23" s="44"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="98"/>
+      <c r="AC23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="98"/>
+      <c r="AF23" s="98"/>
+      <c r="AG23" s="99"/>
+      <c r="AH23" s="98"/>
+      <c r="AI23" s="98"/>
+      <c r="AJ23" s="98"/>
+      <c r="AK23" s="98"/>
+      <c r="AL23" s="98"/>
+      <c r="AM23" s="98"/>
+      <c r="AN23" s="98"/>
+      <c r="AO23" s="98"/>
+      <c r="AP23" s="98"/>
+      <c r="AQ23" s="98"/>
+      <c r="AR23" s="98"/>
+      <c r="AS23" s="98"/>
+      <c r="AT23" s="98"/>
+      <c r="AU23" s="98"/>
+      <c r="AV23" s="98"/>
+      <c r="AW23" s="98"/>
+      <c r="AX23" s="98"/>
+      <c r="AY23" s="98"/>
+      <c r="AZ23" s="98"/>
+      <c r="BA23" s="98"/>
+      <c r="BB23" s="98"/>
+      <c r="BC23" s="98"/>
+      <c r="BD23" s="98"/>
+      <c r="BE23" s="98"/>
+      <c r="BF23" s="98"/>
+      <c r="BG23" s="98"/>
+      <c r="BH23" s="98"/>
+      <c r="BI23" s="98"/>
+      <c r="BJ23" s="98"/>
+      <c r="BK23" s="98"/>
+      <c r="BL23" s="98"/>
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="75"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="32"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
       <c r="G24" s="17"/>
       <c r="H24" s="17" t="str">
         <f t="shared" si="6"/>
@@ -3497,63 +3545,63 @@
       <c r="M24" s="44"/>
       <c r="N24" s="44"/>
       <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="44"/>
-      <c r="AB24" s="44"/>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="44"/>
-      <c r="AF24" s="44"/>
-      <c r="AG24" s="94"/>
-      <c r="AH24" s="44"/>
-      <c r="AI24" s="44"/>
-      <c r="AJ24" s="44"/>
-      <c r="AK24" s="44"/>
-      <c r="AL24" s="44"/>
-      <c r="AM24" s="44"/>
-      <c r="AN24" s="44"/>
-      <c r="AO24" s="44"/>
-      <c r="AP24" s="44"/>
-      <c r="AQ24" s="44"/>
-      <c r="AR24" s="44"/>
-      <c r="AS24" s="44"/>
-      <c r="AT24" s="44"/>
-      <c r="AU24" s="44"/>
-      <c r="AV24" s="44"/>
-      <c r="AW24" s="44"/>
-      <c r="AX24" s="44"/>
-      <c r="AY24" s="44"/>
-      <c r="AZ24" s="44"/>
-      <c r="BA24" s="44"/>
-      <c r="BB24" s="44"/>
-      <c r="BC24" s="44"/>
-      <c r="BD24" s="44"/>
-      <c r="BE24" s="44"/>
-      <c r="BF24" s="44"/>
-      <c r="BG24" s="44"/>
-      <c r="BH24" s="44"/>
-      <c r="BI24" s="44"/>
-      <c r="BJ24" s="44"/>
-      <c r="BK24" s="44"/>
-      <c r="BL24" s="44"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="98"/>
+      <c r="AB24" s="98"/>
+      <c r="AC24" s="98"/>
+      <c r="AD24" s="98"/>
+      <c r="AE24" s="98"/>
+      <c r="AF24" s="98"/>
+      <c r="AG24" s="99"/>
+      <c r="AH24" s="98"/>
+      <c r="AI24" s="98"/>
+      <c r="AJ24" s="98"/>
+      <c r="AK24" s="98"/>
+      <c r="AL24" s="98"/>
+      <c r="AM24" s="98"/>
+      <c r="AN24" s="98"/>
+      <c r="AO24" s="98"/>
+      <c r="AP24" s="98"/>
+      <c r="AQ24" s="98"/>
+      <c r="AR24" s="98"/>
+      <c r="AS24" s="98"/>
+      <c r="AT24" s="98"/>
+      <c r="AU24" s="98"/>
+      <c r="AV24" s="98"/>
+      <c r="AW24" s="98"/>
+      <c r="AX24" s="98"/>
+      <c r="AY24" s="98"/>
+      <c r="AZ24" s="98"/>
+      <c r="BA24" s="98"/>
+      <c r="BB24" s="98"/>
+      <c r="BC24" s="98"/>
+      <c r="BD24" s="98"/>
+      <c r="BE24" s="98"/>
+      <c r="BF24" s="98"/>
+      <c r="BG24" s="98"/>
+      <c r="BH24" s="98"/>
+      <c r="BI24" s="98"/>
+      <c r="BJ24" s="98"/>
+      <c r="BK24" s="98"/>
+      <c r="BL24" s="98"/>
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="75"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="74"/>
       <c r="D25" s="32"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17" t="str">
         <f t="shared" si="6"/>
@@ -3566,62 +3614,62 @@
       <c r="M25" s="44"/>
       <c r="N25" s="44"/>
       <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="44"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="44"/>
-      <c r="AE25" s="44"/>
-      <c r="AF25" s="44"/>
-      <c r="AG25" s="94"/>
-      <c r="AH25" s="44"/>
-      <c r="AI25" s="44"/>
-      <c r="AJ25" s="44"/>
-      <c r="AK25" s="44"/>
-      <c r="AL25" s="44"/>
-      <c r="AM25" s="44"/>
-      <c r="AN25" s="44"/>
-      <c r="AO25" s="44"/>
-      <c r="AP25" s="44"/>
-      <c r="AQ25" s="44"/>
-      <c r="AR25" s="44"/>
-      <c r="AS25" s="44"/>
-      <c r="AT25" s="44"/>
-      <c r="AU25" s="44"/>
-      <c r="AV25" s="44"/>
-      <c r="AW25" s="44"/>
-      <c r="AX25" s="44"/>
-      <c r="AY25" s="44"/>
-      <c r="AZ25" s="44"/>
-      <c r="BA25" s="44"/>
-      <c r="BB25" s="44"/>
-      <c r="BC25" s="44"/>
-      <c r="BD25" s="44"/>
-      <c r="BE25" s="44"/>
-      <c r="BF25" s="44"/>
-      <c r="BG25" s="44"/>
-      <c r="BH25" s="44"/>
-      <c r="BI25" s="44"/>
-      <c r="BJ25" s="44"/>
-      <c r="BK25" s="44"/>
-      <c r="BL25" s="44"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="98"/>
+      <c r="AE25" s="98"/>
+      <c r="AF25" s="98"/>
+      <c r="AG25" s="99"/>
+      <c r="AH25" s="98"/>
+      <c r="AI25" s="98"/>
+      <c r="AJ25" s="98"/>
+      <c r="AK25" s="98"/>
+      <c r="AL25" s="98"/>
+      <c r="AM25" s="98"/>
+      <c r="AN25" s="98"/>
+      <c r="AO25" s="98"/>
+      <c r="AP25" s="98"/>
+      <c r="AQ25" s="98"/>
+      <c r="AR25" s="98"/>
+      <c r="AS25" s="98"/>
+      <c r="AT25" s="98"/>
+      <c r="AU25" s="98"/>
+      <c r="AV25" s="98"/>
+      <c r="AW25" s="98"/>
+      <c r="AX25" s="98"/>
+      <c r="AY25" s="98"/>
+      <c r="AZ25" s="98"/>
+      <c r="BA25" s="98"/>
+      <c r="BB25" s="98"/>
+      <c r="BC25" s="98"/>
+      <c r="BD25" s="98"/>
+      <c r="BE25" s="98"/>
+      <c r="BF25" s="98"/>
+      <c r="BG25" s="98"/>
+      <c r="BH25" s="98"/>
+      <c r="BI25" s="98"/>
+      <c r="BJ25" s="98"/>
+      <c r="BK25" s="98"/>
+      <c r="BL25" s="98"/>
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="57" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="33"/>
-      <c r="C26" s="76"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="34"/>
       <c r="E26" s="35"/>
       <c r="F26" s="36"/>
@@ -3637,63 +3685,63 @@
       <c r="M26" s="44"/>
       <c r="N26" s="44"/>
       <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="44"/>
-      <c r="AF26" s="44"/>
-      <c r="AG26" s="94"/>
-      <c r="AH26" s="44"/>
-      <c r="AI26" s="44"/>
-      <c r="AJ26" s="44"/>
-      <c r="AK26" s="44"/>
-      <c r="AL26" s="44"/>
-      <c r="AM26" s="44"/>
-      <c r="AN26" s="44"/>
-      <c r="AO26" s="44"/>
-      <c r="AP26" s="44"/>
-      <c r="AQ26" s="44"/>
-      <c r="AR26" s="44"/>
-      <c r="AS26" s="44"/>
-      <c r="AT26" s="44"/>
-      <c r="AU26" s="44"/>
-      <c r="AV26" s="44"/>
-      <c r="AW26" s="44"/>
-      <c r="AX26" s="44"/>
-      <c r="AY26" s="44"/>
-      <c r="AZ26" s="44"/>
-      <c r="BA26" s="44"/>
-      <c r="BB26" s="44"/>
-      <c r="BC26" s="44"/>
-      <c r="BD26" s="44"/>
-      <c r="BE26" s="44"/>
-      <c r="BF26" s="44"/>
-      <c r="BG26" s="44"/>
-      <c r="BH26" s="44"/>
-      <c r="BI26" s="44"/>
-      <c r="BJ26" s="44"/>
-      <c r="BK26" s="44"/>
-      <c r="BL26" s="44"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="98"/>
+      <c r="AB26" s="98"/>
+      <c r="AC26" s="98"/>
+      <c r="AD26" s="98"/>
+      <c r="AE26" s="98"/>
+      <c r="AF26" s="98"/>
+      <c r="AG26" s="99"/>
+      <c r="AH26" s="98"/>
+      <c r="AI26" s="98"/>
+      <c r="AJ26" s="98"/>
+      <c r="AK26" s="98"/>
+      <c r="AL26" s="98"/>
+      <c r="AM26" s="98"/>
+      <c r="AN26" s="98"/>
+      <c r="AO26" s="98"/>
+      <c r="AP26" s="98"/>
+      <c r="AQ26" s="98"/>
+      <c r="AR26" s="98"/>
+      <c r="AS26" s="98"/>
+      <c r="AT26" s="98"/>
+      <c r="AU26" s="98"/>
+      <c r="AV26" s="98"/>
+      <c r="AW26" s="98"/>
+      <c r="AX26" s="98"/>
+      <c r="AY26" s="98"/>
+      <c r="AZ26" s="98"/>
+      <c r="BA26" s="98"/>
+      <c r="BB26" s="98"/>
+      <c r="BC26" s="98"/>
+      <c r="BD26" s="98"/>
+      <c r="BE26" s="98"/>
+      <c r="BF26" s="98"/>
+      <c r="BG26" s="98"/>
+      <c r="BH26" s="98"/>
+      <c r="BI26" s="98"/>
+      <c r="BJ26" s="98"/>
+      <c r="BK26" s="98"/>
+      <c r="BL26" s="98"/>
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="77"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="37"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17" t="str">
         <f t="shared" si="6"/>
@@ -3706,63 +3754,63 @@
       <c r="M27" s="44"/>
       <c r="N27" s="44"/>
       <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="44"/>
-      <c r="AF27" s="44"/>
-      <c r="AG27" s="94"/>
-      <c r="AH27" s="44"/>
-      <c r="AI27" s="44"/>
-      <c r="AJ27" s="44"/>
-      <c r="AK27" s="44"/>
-      <c r="AL27" s="44"/>
-      <c r="AM27" s="44"/>
-      <c r="AN27" s="44"/>
-      <c r="AO27" s="44"/>
-      <c r="AP27" s="44"/>
-      <c r="AQ27" s="44"/>
-      <c r="AR27" s="44"/>
-      <c r="AS27" s="44"/>
-      <c r="AT27" s="44"/>
-      <c r="AU27" s="44"/>
-      <c r="AV27" s="44"/>
-      <c r="AW27" s="44"/>
-      <c r="AX27" s="44"/>
-      <c r="AY27" s="44"/>
-      <c r="AZ27" s="44"/>
-      <c r="BA27" s="44"/>
-      <c r="BB27" s="44"/>
-      <c r="BC27" s="44"/>
-      <c r="BD27" s="44"/>
-      <c r="BE27" s="44"/>
-      <c r="BF27" s="44"/>
-      <c r="BG27" s="44"/>
-      <c r="BH27" s="44"/>
-      <c r="BI27" s="44"/>
-      <c r="BJ27" s="44"/>
-      <c r="BK27" s="44"/>
-      <c r="BL27" s="44"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="98"/>
+      <c r="AC27" s="98"/>
+      <c r="AD27" s="98"/>
+      <c r="AE27" s="98"/>
+      <c r="AF27" s="98"/>
+      <c r="AG27" s="99"/>
+      <c r="AH27" s="98"/>
+      <c r="AI27" s="98"/>
+      <c r="AJ27" s="98"/>
+      <c r="AK27" s="98"/>
+      <c r="AL27" s="98"/>
+      <c r="AM27" s="98"/>
+      <c r="AN27" s="98"/>
+      <c r="AO27" s="98"/>
+      <c r="AP27" s="98"/>
+      <c r="AQ27" s="98"/>
+      <c r="AR27" s="98"/>
+      <c r="AS27" s="98"/>
+      <c r="AT27" s="98"/>
+      <c r="AU27" s="98"/>
+      <c r="AV27" s="98"/>
+      <c r="AW27" s="98"/>
+      <c r="AX27" s="98"/>
+      <c r="AY27" s="98"/>
+      <c r="AZ27" s="98"/>
+      <c r="BA27" s="98"/>
+      <c r="BB27" s="98"/>
+      <c r="BC27" s="98"/>
+      <c r="BD27" s="98"/>
+      <c r="BE27" s="98"/>
+      <c r="BF27" s="98"/>
+      <c r="BG27" s="98"/>
+      <c r="BH27" s="98"/>
+      <c r="BI27" s="98"/>
+      <c r="BJ27" s="98"/>
+      <c r="BK27" s="98"/>
+      <c r="BL27" s="98"/>
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="77"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17" t="str">
         <f t="shared" si="6"/>
@@ -3775,63 +3823,63 @@
       <c r="M28" s="44"/>
       <c r="N28" s="44"/>
       <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="44"/>
-      <c r="X28" s="44"/>
-      <c r="Y28" s="44"/>
-      <c r="Z28" s="44"/>
-      <c r="AA28" s="44"/>
-      <c r="AB28" s="44"/>
-      <c r="AC28" s="44"/>
-      <c r="AD28" s="44"/>
-      <c r="AE28" s="44"/>
-      <c r="AF28" s="44"/>
-      <c r="AG28" s="94"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="44"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
-      <c r="AM28" s="44"/>
-      <c r="AN28" s="44"/>
-      <c r="AO28" s="44"/>
-      <c r="AP28" s="44"/>
-      <c r="AQ28" s="44"/>
-      <c r="AR28" s="44"/>
-      <c r="AS28" s="44"/>
-      <c r="AT28" s="44"/>
-      <c r="AU28" s="44"/>
-      <c r="AV28" s="44"/>
-      <c r="AW28" s="44"/>
-      <c r="AX28" s="44"/>
-      <c r="AY28" s="44"/>
-      <c r="AZ28" s="44"/>
-      <c r="BA28" s="44"/>
-      <c r="BB28" s="44"/>
-      <c r="BC28" s="44"/>
-      <c r="BD28" s="44"/>
-      <c r="BE28" s="44"/>
-      <c r="BF28" s="44"/>
-      <c r="BG28" s="44"/>
-      <c r="BH28" s="44"/>
-      <c r="BI28" s="44"/>
-      <c r="BJ28" s="44"/>
-      <c r="BK28" s="44"/>
-      <c r="BL28" s="44"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="98"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="98"/>
+      <c r="U28" s="98"/>
+      <c r="V28" s="98"/>
+      <c r="W28" s="98"/>
+      <c r="X28" s="98"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="98"/>
+      <c r="AB28" s="98"/>
+      <c r="AC28" s="98"/>
+      <c r="AD28" s="98"/>
+      <c r="AE28" s="98"/>
+      <c r="AF28" s="98"/>
+      <c r="AG28" s="99"/>
+      <c r="AH28" s="98"/>
+      <c r="AI28" s="98"/>
+      <c r="AJ28" s="98"/>
+      <c r="AK28" s="98"/>
+      <c r="AL28" s="98"/>
+      <c r="AM28" s="98"/>
+      <c r="AN28" s="98"/>
+      <c r="AO28" s="98"/>
+      <c r="AP28" s="98"/>
+      <c r="AQ28" s="98"/>
+      <c r="AR28" s="98"/>
+      <c r="AS28" s="98"/>
+      <c r="AT28" s="98"/>
+      <c r="AU28" s="98"/>
+      <c r="AV28" s="98"/>
+      <c r="AW28" s="98"/>
+      <c r="AX28" s="98"/>
+      <c r="AY28" s="98"/>
+      <c r="AZ28" s="98"/>
+      <c r="BA28" s="98"/>
+      <c r="BB28" s="98"/>
+      <c r="BC28" s="98"/>
+      <c r="BD28" s="98"/>
+      <c r="BE28" s="98"/>
+      <c r="BF28" s="98"/>
+      <c r="BG28" s="98"/>
+      <c r="BH28" s="98"/>
+      <c r="BI28" s="98"/>
+      <c r="BJ28" s="98"/>
+      <c r="BK28" s="98"/>
+      <c r="BL28" s="98"/>
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="77"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17" t="str">
         <f t="shared" si="6"/>
@@ -3844,63 +3892,63 @@
       <c r="M29" s="44"/>
       <c r="N29" s="44"/>
       <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="44"/>
-      <c r="AA29" s="44"/>
-      <c r="AB29" s="44"/>
-      <c r="AC29" s="44"/>
-      <c r="AD29" s="44"/>
-      <c r="AE29" s="44"/>
-      <c r="AF29" s="44"/>
-      <c r="AG29" s="94"/>
-      <c r="AH29" s="44"/>
-      <c r="AI29" s="44"/>
-      <c r="AJ29" s="44"/>
-      <c r="AK29" s="44"/>
-      <c r="AL29" s="44"/>
-      <c r="AM29" s="44"/>
-      <c r="AN29" s="44"/>
-      <c r="AO29" s="44"/>
-      <c r="AP29" s="44"/>
-      <c r="AQ29" s="44"/>
-      <c r="AR29" s="44"/>
-      <c r="AS29" s="44"/>
-      <c r="AT29" s="44"/>
-      <c r="AU29" s="44"/>
-      <c r="AV29" s="44"/>
-      <c r="AW29" s="44"/>
-      <c r="AX29" s="44"/>
-      <c r="AY29" s="44"/>
-      <c r="AZ29" s="44"/>
-      <c r="BA29" s="44"/>
-      <c r="BB29" s="44"/>
-      <c r="BC29" s="44"/>
-      <c r="BD29" s="44"/>
-      <c r="BE29" s="44"/>
-      <c r="BF29" s="44"/>
-      <c r="BG29" s="44"/>
-      <c r="BH29" s="44"/>
-      <c r="BI29" s="44"/>
-      <c r="BJ29" s="44"/>
-      <c r="BK29" s="44"/>
-      <c r="BL29" s="44"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="98"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="98"/>
+      <c r="AC29" s="98"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="98"/>
+      <c r="AF29" s="98"/>
+      <c r="AG29" s="99"/>
+      <c r="AH29" s="98"/>
+      <c r="AI29" s="98"/>
+      <c r="AJ29" s="98"/>
+      <c r="AK29" s="98"/>
+      <c r="AL29" s="98"/>
+      <c r="AM29" s="98"/>
+      <c r="AN29" s="98"/>
+      <c r="AO29" s="98"/>
+      <c r="AP29" s="98"/>
+      <c r="AQ29" s="98"/>
+      <c r="AR29" s="98"/>
+      <c r="AS29" s="98"/>
+      <c r="AT29" s="98"/>
+      <c r="AU29" s="98"/>
+      <c r="AV29" s="98"/>
+      <c r="AW29" s="98"/>
+      <c r="AX29" s="98"/>
+      <c r="AY29" s="98"/>
+      <c r="AZ29" s="98"/>
+      <c r="BA29" s="98"/>
+      <c r="BB29" s="98"/>
+      <c r="BC29" s="98"/>
+      <c r="BD29" s="98"/>
+      <c r="BE29" s="98"/>
+      <c r="BF29" s="98"/>
+      <c r="BG29" s="98"/>
+      <c r="BH29" s="98"/>
+      <c r="BI29" s="98"/>
+      <c r="BJ29" s="98"/>
+      <c r="BK29" s="98"/>
+      <c r="BL29" s="98"/>
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="58"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="77"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="76"/>
       <c r="D30" s="37"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17" t="str">
         <f t="shared" si="6"/>
@@ -3913,63 +3961,63 @@
       <c r="M30" s="44"/>
       <c r="N30" s="44"/>
       <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="44"/>
-      <c r="Z30" s="44"/>
-      <c r="AA30" s="44"/>
-      <c r="AB30" s="44"/>
-      <c r="AC30" s="44"/>
-      <c r="AD30" s="44"/>
-      <c r="AE30" s="44"/>
-      <c r="AF30" s="44"/>
-      <c r="AG30" s="94"/>
-      <c r="AH30" s="44"/>
-      <c r="AI30" s="44"/>
-      <c r="AJ30" s="44"/>
-      <c r="AK30" s="44"/>
-      <c r="AL30" s="44"/>
-      <c r="AM30" s="44"/>
-      <c r="AN30" s="44"/>
-      <c r="AO30" s="44"/>
-      <c r="AP30" s="44"/>
-      <c r="AQ30" s="44"/>
-      <c r="AR30" s="44"/>
-      <c r="AS30" s="44"/>
-      <c r="AT30" s="44"/>
-      <c r="AU30" s="44"/>
-      <c r="AV30" s="44"/>
-      <c r="AW30" s="44"/>
-      <c r="AX30" s="44"/>
-      <c r="AY30" s="44"/>
-      <c r="AZ30" s="44"/>
-      <c r="BA30" s="44"/>
-      <c r="BB30" s="44"/>
-      <c r="BC30" s="44"/>
-      <c r="BD30" s="44"/>
-      <c r="BE30" s="44"/>
-      <c r="BF30" s="44"/>
-      <c r="BG30" s="44"/>
-      <c r="BH30" s="44"/>
-      <c r="BI30" s="44"/>
-      <c r="BJ30" s="44"/>
-      <c r="BK30" s="44"/>
-      <c r="BL30" s="44"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="98"/>
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="98"/>
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="98"/>
+      <c r="AE30" s="98"/>
+      <c r="AF30" s="98"/>
+      <c r="AG30" s="99"/>
+      <c r="AH30" s="98"/>
+      <c r="AI30" s="98"/>
+      <c r="AJ30" s="98"/>
+      <c r="AK30" s="98"/>
+      <c r="AL30" s="98"/>
+      <c r="AM30" s="98"/>
+      <c r="AN30" s="98"/>
+      <c r="AO30" s="98"/>
+      <c r="AP30" s="98"/>
+      <c r="AQ30" s="98"/>
+      <c r="AR30" s="98"/>
+      <c r="AS30" s="98"/>
+      <c r="AT30" s="98"/>
+      <c r="AU30" s="98"/>
+      <c r="AV30" s="98"/>
+      <c r="AW30" s="98"/>
+      <c r="AX30" s="98"/>
+      <c r="AY30" s="98"/>
+      <c r="AZ30" s="98"/>
+      <c r="BA30" s="98"/>
+      <c r="BB30" s="98"/>
+      <c r="BC30" s="98"/>
+      <c r="BD30" s="98"/>
+      <c r="BE30" s="98"/>
+      <c r="BF30" s="98"/>
+      <c r="BG30" s="98"/>
+      <c r="BH30" s="98"/>
+      <c r="BI30" s="98"/>
+      <c r="BJ30" s="98"/>
+      <c r="BK30" s="98"/>
+      <c r="BL30" s="98"/>
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="58"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="77"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="76"/>
       <c r="D31" s="37"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17" t="str">
         <f t="shared" si="6"/>
@@ -3982,65 +4030,65 @@
       <c r="M31" s="44"/>
       <c r="N31" s="44"/>
       <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="44"/>
-      <c r="AB31" s="44"/>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="44"/>
-      <c r="AE31" s="44"/>
-      <c r="AF31" s="44"/>
-      <c r="AG31" s="94"/>
-      <c r="AH31" s="44"/>
-      <c r="AI31" s="44"/>
-      <c r="AJ31" s="44"/>
-      <c r="AK31" s="44"/>
-      <c r="AL31" s="44"/>
-      <c r="AM31" s="44"/>
-      <c r="AN31" s="44"/>
-      <c r="AO31" s="44"/>
-      <c r="AP31" s="44"/>
-      <c r="AQ31" s="44"/>
-      <c r="AR31" s="44"/>
-      <c r="AS31" s="44"/>
-      <c r="AT31" s="44"/>
-      <c r="AU31" s="44"/>
-      <c r="AV31" s="44"/>
-      <c r="AW31" s="44"/>
-      <c r="AX31" s="44"/>
-      <c r="AY31" s="44"/>
-      <c r="AZ31" s="44"/>
-      <c r="BA31" s="44"/>
-      <c r="BB31" s="44"/>
-      <c r="BC31" s="44"/>
-      <c r="BD31" s="44"/>
-      <c r="BE31" s="44"/>
-      <c r="BF31" s="44"/>
-      <c r="BG31" s="44"/>
-      <c r="BH31" s="44"/>
-      <c r="BI31" s="44"/>
-      <c r="BJ31" s="44"/>
-      <c r="BK31" s="44"/>
-      <c r="BL31" s="44"/>
+      <c r="P31" s="98"/>
+      <c r="Q31" s="98"/>
+      <c r="R31" s="98"/>
+      <c r="S31" s="98"/>
+      <c r="T31" s="98"/>
+      <c r="U31" s="98"/>
+      <c r="V31" s="98"/>
+      <c r="W31" s="98"/>
+      <c r="X31" s="98"/>
+      <c r="Y31" s="98"/>
+      <c r="Z31" s="98"/>
+      <c r="AA31" s="98"/>
+      <c r="AB31" s="98"/>
+      <c r="AC31" s="98"/>
+      <c r="AD31" s="98"/>
+      <c r="AE31" s="98"/>
+      <c r="AF31" s="98"/>
+      <c r="AG31" s="99"/>
+      <c r="AH31" s="98"/>
+      <c r="AI31" s="98"/>
+      <c r="AJ31" s="98"/>
+      <c r="AK31" s="98"/>
+      <c r="AL31" s="98"/>
+      <c r="AM31" s="98"/>
+      <c r="AN31" s="98"/>
+      <c r="AO31" s="98"/>
+      <c r="AP31" s="98"/>
+      <c r="AQ31" s="98"/>
+      <c r="AR31" s="98"/>
+      <c r="AS31" s="98"/>
+      <c r="AT31" s="98"/>
+      <c r="AU31" s="98"/>
+      <c r="AV31" s="98"/>
+      <c r="AW31" s="98"/>
+      <c r="AX31" s="98"/>
+      <c r="AY31" s="98"/>
+      <c r="AZ31" s="98"/>
+      <c r="BA31" s="98"/>
+      <c r="BB31" s="98"/>
+      <c r="BC31" s="98"/>
+      <c r="BD31" s="98"/>
+      <c r="BE31" s="98"/>
+      <c r="BF31" s="98"/>
+      <c r="BG31" s="98"/>
+      <c r="BH31" s="98"/>
+      <c r="BI31" s="98"/>
+      <c r="BJ31" s="98"/>
+      <c r="BK31" s="98"/>
+      <c r="BL31" s="98"/>
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="78"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17" t="str">
         <f t="shared" si="6"/>
@@ -4053,58 +4101,58 @@
       <c r="M32" s="44"/>
       <c r="N32" s="44"/>
       <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="44"/>
-      <c r="X32" s="44"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="44"/>
-      <c r="AA32" s="44"/>
-      <c r="AB32" s="44"/>
-      <c r="AC32" s="44"/>
-      <c r="AD32" s="44"/>
-      <c r="AE32" s="44"/>
-      <c r="AF32" s="44"/>
-      <c r="AG32" s="94"/>
-      <c r="AH32" s="44"/>
-      <c r="AI32" s="44"/>
-      <c r="AJ32" s="44"/>
-      <c r="AK32" s="44"/>
-      <c r="AL32" s="44"/>
-      <c r="AM32" s="44"/>
-      <c r="AN32" s="44"/>
-      <c r="AO32" s="44"/>
-      <c r="AP32" s="44"/>
-      <c r="AQ32" s="44"/>
-      <c r="AR32" s="44"/>
-      <c r="AS32" s="44"/>
-      <c r="AT32" s="44"/>
-      <c r="AU32" s="44"/>
-      <c r="AV32" s="44"/>
-      <c r="AW32" s="44"/>
-      <c r="AX32" s="44"/>
-      <c r="AY32" s="44"/>
-      <c r="AZ32" s="44"/>
-      <c r="BA32" s="44"/>
-      <c r="BB32" s="44"/>
-      <c r="BC32" s="44"/>
-      <c r="BD32" s="44"/>
-      <c r="BE32" s="44"/>
-      <c r="BF32" s="44"/>
-      <c r="BG32" s="44"/>
-      <c r="BH32" s="44"/>
-      <c r="BI32" s="44"/>
-      <c r="BJ32" s="44"/>
-      <c r="BK32" s="44"/>
-      <c r="BL32" s="44"/>
+      <c r="P32" s="98"/>
+      <c r="Q32" s="98"/>
+      <c r="R32" s="98"/>
+      <c r="S32" s="98"/>
+      <c r="T32" s="98"/>
+      <c r="U32" s="98"/>
+      <c r="V32" s="98"/>
+      <c r="W32" s="98"/>
+      <c r="X32" s="98"/>
+      <c r="Y32" s="98"/>
+      <c r="Z32" s="98"/>
+      <c r="AA32" s="98"/>
+      <c r="AB32" s="98"/>
+      <c r="AC32" s="98"/>
+      <c r="AD32" s="98"/>
+      <c r="AE32" s="98"/>
+      <c r="AF32" s="98"/>
+      <c r="AG32" s="99"/>
+      <c r="AH32" s="98"/>
+      <c r="AI32" s="98"/>
+      <c r="AJ32" s="98"/>
+      <c r="AK32" s="98"/>
+      <c r="AL32" s="98"/>
+      <c r="AM32" s="98"/>
+      <c r="AN32" s="98"/>
+      <c r="AO32" s="98"/>
+      <c r="AP32" s="98"/>
+      <c r="AQ32" s="98"/>
+      <c r="AR32" s="98"/>
+      <c r="AS32" s="98"/>
+      <c r="AT32" s="98"/>
+      <c r="AU32" s="98"/>
+      <c r="AV32" s="98"/>
+      <c r="AW32" s="98"/>
+      <c r="AX32" s="98"/>
+      <c r="AY32" s="98"/>
+      <c r="AZ32" s="98"/>
+      <c r="BA32" s="98"/>
+      <c r="BB32" s="98"/>
+      <c r="BC32" s="98"/>
+      <c r="BD32" s="98"/>
+      <c r="BE32" s="98"/>
+      <c r="BF32" s="98"/>
+      <c r="BG32" s="98"/>
+      <c r="BH32" s="98"/>
+      <c r="BI32" s="98"/>
+      <c r="BJ32" s="98"/>
+      <c r="BK32" s="98"/>
+      <c r="BL32" s="98"/>
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="38" t="s">
@@ -4119,86 +4167,86 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="46"/>
-      <c r="AA33" s="46"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="46"/>
-      <c r="AE33" s="46"/>
-      <c r="AF33" s="46"/>
-      <c r="AG33" s="94"/>
-      <c r="AH33" s="46"/>
-      <c r="AI33" s="46"/>
-      <c r="AJ33" s="46"/>
-      <c r="AK33" s="46"/>
-      <c r="AL33" s="46"/>
-      <c r="AM33" s="46"/>
-      <c r="AN33" s="46"/>
-      <c r="AO33" s="46"/>
-      <c r="AP33" s="46"/>
-      <c r="AQ33" s="46"/>
-      <c r="AR33" s="46"/>
-      <c r="AS33" s="46"/>
-      <c r="AT33" s="46"/>
-      <c r="AU33" s="46"/>
-      <c r="AV33" s="46"/>
-      <c r="AW33" s="46"/>
-      <c r="AX33" s="46"/>
-      <c r="AY33" s="46"/>
-      <c r="AZ33" s="46"/>
-      <c r="BA33" s="46"/>
-      <c r="BB33" s="46"/>
-      <c r="BC33" s="46"/>
-      <c r="BD33" s="46"/>
-      <c r="BE33" s="46"/>
-      <c r="BF33" s="46"/>
-      <c r="BG33" s="46"/>
-      <c r="BH33" s="46"/>
-      <c r="BI33" s="46"/>
-      <c r="BJ33" s="46"/>
-      <c r="BK33" s="46"/>
-      <c r="BL33" s="46"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="101"/>
+      <c r="Q33" s="101"/>
+      <c r="R33" s="101"/>
+      <c r="S33" s="101"/>
+      <c r="T33" s="101"/>
+      <c r="U33" s="101"/>
+      <c r="V33" s="101"/>
+      <c r="W33" s="101"/>
+      <c r="X33" s="101"/>
+      <c r="Y33" s="101"/>
+      <c r="Z33" s="101"/>
+      <c r="AA33" s="101"/>
+      <c r="AB33" s="101"/>
+      <c r="AC33" s="101"/>
+      <c r="AD33" s="101"/>
+      <c r="AE33" s="101"/>
+      <c r="AF33" s="101"/>
+      <c r="AG33" s="99"/>
+      <c r="AH33" s="101"/>
+      <c r="AI33" s="101"/>
+      <c r="AJ33" s="101"/>
+      <c r="AK33" s="101"/>
+      <c r="AL33" s="101"/>
+      <c r="AM33" s="101"/>
+      <c r="AN33" s="101"/>
+      <c r="AO33" s="101"/>
+      <c r="AP33" s="101"/>
+      <c r="AQ33" s="101"/>
+      <c r="AR33" s="101"/>
+      <c r="AS33" s="101"/>
+      <c r="AT33" s="101"/>
+      <c r="AU33" s="101"/>
+      <c r="AV33" s="101"/>
+      <c r="AW33" s="101"/>
+      <c r="AX33" s="101"/>
+      <c r="AY33" s="101"/>
+      <c r="AZ33" s="101"/>
+      <c r="BA33" s="101"/>
+      <c r="BB33" s="101"/>
+      <c r="BC33" s="101"/>
+      <c r="BD33" s="101"/>
+      <c r="BE33" s="101"/>
+      <c r="BF33" s="101"/>
+      <c r="BG33" s="101"/>
+      <c r="BH33" s="101"/>
+      <c r="BI33" s="101"/>
+      <c r="BJ33" s="101"/>
+      <c r="BK33" s="101"/>
+      <c r="BL33" s="101"/>
     </row>
     <row r="34" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="14"/>
-      <c r="F35" s="60"/>
+      <c r="F35" s="59"/>
     </row>
     <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="14">
@@ -4274,85 +4322,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="48" customWidth="1"/>
+    <col min="1" max="1" width="87.140625" style="47" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:2" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="49"/>
-    </row>
-    <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="B2" s="48"/>
+    </row>
+    <row r="3" spans="1:2" s="53" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="55"/>
-    </row>
-    <row r="4" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="52" t="s">
+      <c r="B3" s="54"/>
+    </row>
+    <row r="4" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="51" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="48" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+    <row r="7" spans="1:2" s="47" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="56" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="52" t="s">
+    <row r="8" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="51" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="48" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+    <row r="10" spans="1:2" s="47" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="52" t="s">
+    <row r="11" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="51" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="52" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="48" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
+    <row r="13" spans="1:2" s="47" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="55" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="52" t="s">
+    <row r="14" spans="1:2" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A14" s="51" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="52" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="52" t="s">
         <v>16</v>
       </c>
     </row>
